--- a/models/tests/sharpe_analysis_p2.xlsx
+++ b/models/tests/sharpe_analysis_p2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3550,11 +3550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137061504"/>
-        <c:axId val="137063040"/>
+        <c:axId val="133856640"/>
+        <c:axId val="133878912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137061504"/>
+        <c:axId val="133856640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,7 +3563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137063040"/>
+        <c:crossAx val="133878912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3571,7 +3571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137063040"/>
+        <c:axId val="133878912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137061504"/>
+        <c:crossAx val="133856640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,11 +8015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142311424"/>
-        <c:axId val="142312960"/>
+        <c:axId val="134081536"/>
+        <c:axId val="134083328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142311424"/>
+        <c:axId val="134081536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8028,7 +8028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142312960"/>
+        <c:crossAx val="134083328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8036,7 +8036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142312960"/>
+        <c:axId val="134083328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8047,7 +8047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142311424"/>
+        <c:crossAx val="134081536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16602,7 +16602,7 @@
         <v>190316.4</v>
       </c>
       <c r="B2" s="2">
-        <f>(100000*K2)+100000</f>
+        <f t="shared" ref="B2:B65" si="0">(100000*K2)+100000</f>
         <v>146741.30729999999</v>
       </c>
       <c r="K2">
@@ -16614,7 +16614,7 @@
         <v>104706.6</v>
       </c>
       <c r="B3" s="2">
-        <f>(100000*K3)+100000</f>
+        <f t="shared" si="0"/>
         <v>125637.29060000001</v>
       </c>
       <c r="K3">
@@ -16626,7 +16626,7 @@
         <v>159841.45000000001</v>
       </c>
       <c r="B4" s="2">
-        <f>(100000*K4)+100000</f>
+        <f t="shared" si="0"/>
         <v>176514.2965</v>
       </c>
       <c r="K4">
@@ -16638,7 +16638,7 @@
         <v>84322.9</v>
       </c>
       <c r="B5" s="2">
-        <f>(100000*K5)+100000</f>
+        <f t="shared" si="0"/>
         <v>116541.02</v>
       </c>
       <c r="K5">
@@ -16650,7 +16650,7 @@
         <v>186712.9</v>
       </c>
       <c r="B6" s="2">
-        <f>(100000*K6)+100000</f>
+        <f t="shared" si="0"/>
         <v>168312.52559999999</v>
       </c>
       <c r="K6">
@@ -16662,7 +16662,7 @@
         <v>140601.5</v>
       </c>
       <c r="B7" s="2">
-        <f>(100000*K7)+100000</f>
+        <f t="shared" si="0"/>
         <v>158472.3003</v>
       </c>
       <c r="K7">
@@ -16674,7 +16674,7 @@
         <v>110174.2</v>
       </c>
       <c r="B8" s="2">
-        <f>(100000*K8)+100000</f>
+        <f t="shared" si="0"/>
         <v>140052.49340000001</v>
       </c>
       <c r="K8">
@@ -16686,7 +16686,7 @@
         <v>99130.3</v>
       </c>
       <c r="B9" s="2">
-        <f>(100000*K9)+100000</f>
+        <f t="shared" si="0"/>
         <v>118380.1554</v>
       </c>
       <c r="K9">
@@ -16698,7 +16698,7 @@
         <v>99971.7</v>
       </c>
       <c r="B10" s="2">
-        <f>(100000*K10)+100000</f>
+        <f t="shared" si="0"/>
         <v>81355.932199999996</v>
       </c>
       <c r="K10">
@@ -16710,7 +16710,7 @@
         <v>85270.1</v>
       </c>
       <c r="B11" s="2">
-        <f>(100000*K11)+100000</f>
+        <f t="shared" si="0"/>
         <v>-2878.1203999999998</v>
       </c>
       <c r="K11">
@@ -16722,7 +16722,7 @@
         <v>164465.5</v>
       </c>
       <c r="B12" s="2">
-        <f>(100000*K12)+100000</f>
+        <f t="shared" si="0"/>
         <v>176998.1917</v>
       </c>
       <c r="K12">
@@ -16734,7 +16734,7 @@
         <v>109918</v>
       </c>
       <c r="B13" s="2">
-        <f>(100000*K13)+100000</f>
+        <f t="shared" si="0"/>
         <v>138691.4834</v>
       </c>
       <c r="K13">
@@ -16746,7 +16746,7 @@
         <v>115527.9</v>
       </c>
       <c r="B14" s="2">
-        <f>(100000*K14)+100000</f>
+        <f t="shared" si="0"/>
         <v>127162.5511</v>
       </c>
       <c r="K14">
@@ -16758,7 +16758,7 @@
         <v>100442.3</v>
       </c>
       <c r="B15" s="2">
-        <f>(100000*K15)+100000</f>
+        <f t="shared" si="0"/>
         <v>113573.2648</v>
       </c>
       <c r="K15">
@@ -16770,7 +16770,7 @@
         <v>132955.4</v>
       </c>
       <c r="B16" s="2">
-        <f>(100000*K16)+100000</f>
+        <f t="shared" si="0"/>
         <v>130838.254</v>
       </c>
       <c r="K16">
@@ -16782,7 +16782,7 @@
         <v>135169.29999999999</v>
       </c>
       <c r="B17" s="2">
-        <f>(100000*K17)+100000</f>
+        <f t="shared" si="0"/>
         <v>135077.6502</v>
       </c>
       <c r="K17">
@@ -16794,7 +16794,7 @@
         <v>97342.3</v>
       </c>
       <c r="B18" s="2">
-        <f>(100000*K18)+100000</f>
+        <f t="shared" si="0"/>
         <v>107441.349</v>
       </c>
       <c r="K18">
@@ -16806,7 +16806,7 @@
         <v>111610.7</v>
       </c>
       <c r="B19" s="2">
-        <f>(100000*K19)+100000</f>
+        <f t="shared" si="0"/>
         <v>152431.79120000001</v>
       </c>
       <c r="K19">
@@ -16818,7 +16818,7 @@
         <v>110591.4</v>
       </c>
       <c r="B20" s="2">
-        <f>(100000*K20)+100000</f>
+        <f t="shared" si="0"/>
         <v>138594.89050000001</v>
       </c>
       <c r="K20">
@@ -16830,7 +16830,7 @@
         <v>98183.6</v>
       </c>
       <c r="B21" s="2">
-        <f>(100000*K21)+100000</f>
+        <f t="shared" si="0"/>
         <v>94370.229000000007</v>
       </c>
       <c r="K21">
@@ -16842,7 +16842,7 @@
         <v>109492.75</v>
       </c>
       <c r="B22" s="2">
-        <f>(100000*K22)+100000</f>
+        <f t="shared" si="0"/>
         <v>130848.74069999999</v>
       </c>
       <c r="K22">
@@ -16854,7 +16854,7 @@
         <v>75007.399999999994</v>
       </c>
       <c r="B23" s="2">
-        <f>(100000*K23)+100000</f>
+        <f t="shared" si="0"/>
         <v>38772.213200000006</v>
       </c>
       <c r="K23">
@@ -16866,7 +16866,7 @@
         <v>129982.93</v>
       </c>
       <c r="B24" s="2">
-        <f>(100000*K24)+100000</f>
+        <f t="shared" si="0"/>
         <v>146349.9472</v>
       </c>
       <c r="K24">
@@ -16878,7 +16878,7 @@
         <v>107074.2</v>
       </c>
       <c r="B25" s="2">
-        <f>(100000*K25)+100000</f>
+        <f t="shared" si="0"/>
         <v>94736.842099999994</v>
       </c>
       <c r="K25">
@@ -16890,7 +16890,7 @@
         <v>190401</v>
       </c>
       <c r="B26" s="2">
-        <f>(100000*K26)+100000</f>
+        <f t="shared" si="0"/>
         <v>172202.65059999999</v>
       </c>
       <c r="K26">
@@ -16902,7 +16902,7 @@
         <v>95975.4</v>
       </c>
       <c r="B27" s="2">
-        <f>(100000*K27)+100000</f>
+        <f t="shared" si="0"/>
         <v>93147.410399999993</v>
       </c>
       <c r="K27">
@@ -16914,7 +16914,7 @@
         <v>113518.1</v>
       </c>
       <c r="B28" s="2">
-        <f>(100000*K28)+100000</f>
+        <f t="shared" si="0"/>
         <v>149912.95699999999</v>
       </c>
       <c r="K28">
@@ -16926,7 +16926,7 @@
         <v>114639.4</v>
       </c>
       <c r="B29" s="2">
-        <f>(100000*K29)+100000</f>
+        <f t="shared" si="0"/>
         <v>145901.07819999999</v>
       </c>
       <c r="K29">
@@ -16938,7 +16938,7 @@
         <v>87227.199999999997</v>
       </c>
       <c r="B30" s="2">
-        <f>(100000*K30)+100000</f>
+        <f t="shared" si="0"/>
         <v>97883.258499999996</v>
       </c>
       <c r="K30">
@@ -16950,7 +16950,7 @@
         <v>95866.8</v>
       </c>
       <c r="B31" s="2">
-        <f>(100000*K31)+100000</f>
+        <f t="shared" si="0"/>
         <v>99867.856</v>
       </c>
       <c r="K31">
@@ -16962,7 +16962,7 @@
         <v>100817.60000000001</v>
       </c>
       <c r="B32" s="2">
-        <f>(100000*K32)+100000</f>
+        <f t="shared" si="0"/>
         <v>142910.79810000001</v>
       </c>
       <c r="K32">
@@ -16974,7 +16974,7 @@
         <v>98077.15</v>
       </c>
       <c r="B33" s="2">
-        <f>(100000*K33)+100000</f>
+        <f t="shared" si="0"/>
         <v>162112.7199</v>
       </c>
       <c r="K33">
@@ -16986,7 +16986,7 @@
         <v>123198.6</v>
       </c>
       <c r="B34" s="2">
-        <f>(100000*K34)+100000</f>
+        <f t="shared" si="0"/>
         <v>145372.87479999999</v>
       </c>
       <c r="K34">
@@ -16998,7 +16998,7 @@
         <v>104029.5</v>
       </c>
       <c r="B35" s="2">
-        <f>(100000*K35)+100000</f>
+        <f t="shared" si="0"/>
         <v>118599.9495</v>
       </c>
       <c r="K35">
@@ -17010,7 +17010,7 @@
         <v>126079.9</v>
       </c>
       <c r="B36" s="2">
-        <f>(100000*K36)+100000</f>
+        <f t="shared" si="0"/>
         <v>161861.00690000001</v>
       </c>
       <c r="K36">
@@ -17022,7 +17022,7 @@
         <v>150562.29999999999</v>
       </c>
       <c r="B37" s="2">
-        <f>(100000*K37)+100000</f>
+        <f t="shared" si="0"/>
         <v>153418.45449999999</v>
       </c>
       <c r="K37">
@@ -17034,7 +17034,7 @@
         <v>115723.2</v>
       </c>
       <c r="B38" s="2">
-        <f>(100000*K38)+100000</f>
+        <f t="shared" si="0"/>
         <v>149584.38740000001</v>
       </c>
       <c r="K38">
@@ -17046,7 +17046,7 @@
         <v>103775.2</v>
       </c>
       <c r="B39" s="2">
-        <f>(100000*K39)+100000</f>
+        <f t="shared" si="0"/>
         <v>136657.46950000001</v>
       </c>
       <c r="K39">
@@ -17058,7 +17058,7 @@
         <v>98450.2</v>
       </c>
       <c r="B40" s="2">
-        <f>(100000*K40)+100000</f>
+        <f t="shared" si="0"/>
         <v>78988.603999999992</v>
       </c>
       <c r="K40">
@@ -17070,7 +17070,7 @@
         <v>112086.39999999999</v>
       </c>
       <c r="B41" s="2">
-        <f>(100000*K41)+100000</f>
+        <f t="shared" si="0"/>
         <v>139375.93799999999</v>
       </c>
       <c r="K41">
@@ -17082,7 +17082,7 @@
         <v>93368.25</v>
       </c>
       <c r="B42" s="2">
-        <f>(100000*K42)+100000</f>
+        <f t="shared" si="0"/>
         <v>142122.18650000001</v>
       </c>
       <c r="K42">
@@ -17094,7 +17094,7 @@
         <v>88661.8</v>
       </c>
       <c r="B43" s="2">
-        <f>(100000*K43)+100000</f>
+        <f t="shared" si="0"/>
         <v>89778.434299999994</v>
       </c>
       <c r="K43">
@@ -17106,7 +17106,7 @@
         <v>121552.05</v>
       </c>
       <c r="B44" s="2">
-        <f>(100000*K44)+100000</f>
+        <f t="shared" si="0"/>
         <v>148375.46529999998</v>
       </c>
       <c r="K44">
@@ -17118,7 +17118,7 @@
         <v>109757.2</v>
       </c>
       <c r="B45" s="2">
-        <f>(100000*K45)+100000</f>
+        <f t="shared" si="0"/>
         <v>126387.2755</v>
       </c>
       <c r="K45">
@@ -17130,7 +17130,7 @@
         <v>214724.24900000001</v>
       </c>
       <c r="B46" s="2">
-        <f>(100000*K46)+100000</f>
+        <f t="shared" si="0"/>
         <v>162755.92420000001</v>
       </c>
       <c r="K46">
@@ -17142,7 +17142,7 @@
         <v>148200.70000000001</v>
       </c>
       <c r="B47" s="2">
-        <f>(100000*K47)+100000</f>
+        <f t="shared" si="0"/>
         <v>168847.2556</v>
       </c>
       <c r="K47">
@@ -17154,7 +17154,7 @@
         <v>181136.45</v>
       </c>
       <c r="B48" s="2">
-        <f>(100000*K48)+100000</f>
+        <f t="shared" si="0"/>
         <v>151822.228</v>
       </c>
       <c r="K48">
@@ -17166,7 +17166,7 @@
         <v>104412.49</v>
       </c>
       <c r="B49" s="2">
-        <f>(100000*K49)+100000</f>
+        <f t="shared" si="0"/>
         <v>153964.19440000001</v>
       </c>
       <c r="K49">
@@ -17178,7 +17178,7 @@
         <v>115536</v>
       </c>
       <c r="B50" s="2">
-        <f>(100000*K50)+100000</f>
+        <f t="shared" si="0"/>
         <v>133981.41219999999</v>
       </c>
       <c r="K50">
@@ -17190,7 +17190,7 @@
         <v>103356.6</v>
       </c>
       <c r="B51" s="2">
-        <f>(100000*K51)+100000</f>
+        <f t="shared" si="0"/>
         <v>120675.2656</v>
       </c>
       <c r="K51">
@@ -17202,7 +17202,7 @@
         <v>92321.3</v>
       </c>
       <c r="B52" s="2">
-        <f>(100000*K52)+100000</f>
+        <f t="shared" si="0"/>
         <v>40485.564299999998</v>
       </c>
       <c r="K52">
@@ -17214,7 +17214,7 @@
         <v>101336.5</v>
       </c>
       <c r="B53" s="2">
-        <f>(100000*K53)+100000</f>
+        <f t="shared" si="0"/>
         <v>116965.1841</v>
       </c>
       <c r="K53">
@@ -17226,7 +17226,7 @@
         <v>149700.9</v>
       </c>
       <c r="B54" s="2">
-        <f>(100000*K54)+100000</f>
+        <f t="shared" si="0"/>
         <v>146811.2696</v>
       </c>
       <c r="K54">
@@ -17238,7 +17238,7 @@
         <v>92730.5</v>
       </c>
       <c r="B55" s="2">
-        <f>(100000*K55)+100000</f>
+        <f t="shared" si="0"/>
         <v>100802.17540000001</v>
       </c>
       <c r="K55">
@@ -17250,7 +17250,7 @@
         <v>116007.9</v>
       </c>
       <c r="B56" s="2">
-        <f>(100000*K56)+100000</f>
+        <f t="shared" si="0"/>
         <v>156424.4547</v>
       </c>
       <c r="K56">
@@ -17262,7 +17262,7 @@
         <v>107013.85</v>
       </c>
       <c r="B57" s="2">
-        <f>(100000*K57)+100000</f>
+        <f t="shared" si="0"/>
         <v>104789.63190000001</v>
       </c>
       <c r="K57">
@@ -17274,7 +17274,7 @@
         <v>96023.9</v>
       </c>
       <c r="B58" s="2">
-        <f>(100000*K58)+100000</f>
+        <f t="shared" si="0"/>
         <v>98823.258000000002</v>
       </c>
       <c r="K58">
@@ -17286,7 +17286,7 @@
         <v>82261.600000000006</v>
       </c>
       <c r="B59" s="2">
-        <f>(100000*K59)+100000</f>
+        <f t="shared" si="0"/>
         <v>-42438.452500000014</v>
       </c>
       <c r="K59">
@@ -17298,7 +17298,7 @@
         <v>119217.05</v>
       </c>
       <c r="B60" s="2">
-        <f>(100000*K60)+100000</f>
+        <f t="shared" si="0"/>
         <v>155312.84710000001</v>
       </c>
       <c r="K60">
@@ -17310,7 +17310,7 @@
         <v>99616.5</v>
       </c>
       <c r="B61" s="2">
-        <f>(100000*K61)+100000</f>
+        <f t="shared" si="0"/>
         <v>-208.2609999999986</v>
       </c>
       <c r="K61">
@@ -17322,7 +17322,7 @@
         <v>103477.901</v>
       </c>
       <c r="B62" s="2">
-        <f>(100000*K62)+100000</f>
+        <f t="shared" si="0"/>
         <v>134635.4167</v>
       </c>
       <c r="K62">
@@ -17334,7 +17334,7 @@
         <v>124532</v>
       </c>
       <c r="B63" s="2">
-        <f>(100000*K63)+100000</f>
+        <f t="shared" si="0"/>
         <v>156104.8689</v>
       </c>
       <c r="K63">
@@ -17346,7 +17346,7 @@
         <v>101783.19</v>
       </c>
       <c r="B64" s="2">
-        <f>(100000*K64)+100000</f>
+        <f t="shared" si="0"/>
         <v>99696.417700000005</v>
       </c>
       <c r="K64">
@@ -17358,7 +17358,7 @@
         <v>99787.199999999997</v>
       </c>
       <c r="B65" s="2">
-        <f>(100000*K65)+100000</f>
+        <f t="shared" si="0"/>
         <v>104844.19259999999</v>
       </c>
       <c r="K65">
@@ -17370,7 +17370,7 @@
         <v>100348.59</v>
       </c>
       <c r="B66" s="2">
-        <f>(100000*K66)+100000</f>
+        <f t="shared" ref="B66:B129" si="1">(100000*K66)+100000</f>
         <v>138940.6605</v>
       </c>
       <c r="K66">
@@ -17382,7 +17382,7 @@
         <v>102013.95</v>
       </c>
       <c r="B67" s="2">
-        <f>(100000*K67)+100000</f>
+        <f t="shared" si="1"/>
         <v>113056.2635</v>
       </c>
       <c r="K67">
@@ -17394,7 +17394,7 @@
         <v>118657.04</v>
       </c>
       <c r="B68" s="2">
-        <f>(100000*K68)+100000</f>
+        <f t="shared" si="1"/>
         <v>150425.8689</v>
       </c>
       <c r="K68">
@@ -17406,7 +17406,7 @@
         <v>104059.1</v>
       </c>
       <c r="B69" s="2">
-        <f>(100000*K69)+100000</f>
+        <f t="shared" si="1"/>
         <v>137556.231</v>
       </c>
       <c r="K69">
@@ -17418,7 +17418,7 @@
         <v>120740.16</v>
       </c>
       <c r="B70" s="2">
-        <f>(100000*K70)+100000</f>
+        <f t="shared" si="1"/>
         <v>157861.99100000001</v>
       </c>
       <c r="K70">
@@ -17430,7 +17430,7 @@
         <v>116171.1</v>
       </c>
       <c r="B71" s="2">
-        <f>(100000*K71)+100000</f>
+        <f t="shared" si="1"/>
         <v>157250.2291</v>
       </c>
       <c r="K71">
@@ -17442,7 +17442,7 @@
         <v>97619.6</v>
       </c>
       <c r="B72" s="2">
-        <f>(100000*K72)+100000</f>
+        <f t="shared" si="1"/>
         <v>69457.968200000003</v>
       </c>
       <c r="K72">
@@ -17454,7 +17454,7 @@
         <v>113334.3</v>
       </c>
       <c r="B73" s="2">
-        <f>(100000*K73)+100000</f>
+        <f t="shared" si="1"/>
         <v>142102.02830000001</v>
       </c>
       <c r="K73">
@@ -17466,7 +17466,7 @@
         <v>113122.363</v>
       </c>
       <c r="B74" s="2">
-        <f>(100000*K74)+100000</f>
+        <f t="shared" si="1"/>
         <v>147545.8602</v>
       </c>
       <c r="K74">
@@ -17478,7 +17478,7 @@
         <v>122842.3</v>
       </c>
       <c r="B75" s="2">
-        <f>(100000*K75)+100000</f>
+        <f t="shared" si="1"/>
         <v>128760.2715</v>
       </c>
       <c r="K75">
@@ -17490,7 +17490,7 @@
         <v>106678</v>
       </c>
       <c r="B76" s="2">
-        <f>(100000*K76)+100000</f>
+        <f t="shared" si="1"/>
         <v>120358.96060000001</v>
       </c>
       <c r="K76">
@@ -17502,7 +17502,7 @@
         <v>116105.3</v>
       </c>
       <c r="B77" s="2">
-        <f>(100000*K77)+100000</f>
+        <f t="shared" si="1"/>
         <v>144727.158</v>
       </c>
       <c r="K77">
@@ -17514,7 +17514,7 @@
         <v>123659.1</v>
       </c>
       <c r="B78" s="2">
-        <f>(100000*K78)+100000</f>
+        <f t="shared" si="1"/>
         <v>143561.92129999999</v>
       </c>
       <c r="K78">
@@ -17526,7 +17526,7 @@
         <v>98165.2</v>
       </c>
       <c r="B79" s="2">
-        <f>(100000*K79)+100000</f>
+        <f t="shared" si="1"/>
         <v>100686.49890000001</v>
       </c>
       <c r="K79">
@@ -17538,7 +17538,7 @@
         <v>111146.4</v>
       </c>
       <c r="B80" s="2">
-        <f>(100000*K80)+100000</f>
+        <f t="shared" si="1"/>
         <v>150233.49609999999</v>
       </c>
       <c r="K80">
@@ -17550,7 +17550,7 @@
         <v>130801.8</v>
       </c>
       <c r="B81" s="2">
-        <f>(100000*K81)+100000</f>
+        <f t="shared" si="1"/>
         <v>160104.2139</v>
       </c>
       <c r="K81">
@@ -17562,7 +17562,7 @@
         <v>180367.9</v>
       </c>
       <c r="B82" s="2">
-        <f>(100000*K82)+100000</f>
+        <f t="shared" si="1"/>
         <v>172624.52110000001</v>
       </c>
       <c r="K82">
@@ -17574,7 +17574,7 @@
         <v>146937</v>
       </c>
       <c r="B83" s="2">
-        <f>(100000*K83)+100000</f>
+        <f t="shared" si="1"/>
         <v>152381.46669999999</v>
       </c>
       <c r="K83">
@@ -17586,7 +17586,7 @@
         <v>171932</v>
       </c>
       <c r="B84" s="2">
-        <f>(100000*K84)+100000</f>
+        <f t="shared" si="1"/>
         <v>162602.9178</v>
       </c>
       <c r="K84">
@@ -17598,7 +17598,7 @@
         <v>124365.25</v>
       </c>
       <c r="B85" s="2">
-        <f>(100000*K85)+100000</f>
+        <f t="shared" si="1"/>
         <v>151107.22940000001</v>
       </c>
       <c r="K85">
@@ -17610,7 +17610,7 @@
         <v>213349.7</v>
       </c>
       <c r="B86" s="2">
-        <f>(100000*K86)+100000</f>
+        <f t="shared" si="1"/>
         <v>180427.05679999999</v>
       </c>
       <c r="K86">
@@ -17622,7 +17622,7 @@
         <v>134842.76</v>
       </c>
       <c r="B87" s="2">
-        <f>(100000*K87)+100000</f>
+        <f t="shared" si="1"/>
         <v>141441.2887</v>
       </c>
       <c r="K87">
@@ -17634,7 +17634,7 @@
         <v>96013.6</v>
       </c>
       <c r="B88" s="2">
-        <f>(100000*K88)+100000</f>
+        <f t="shared" si="1"/>
         <v>-162304.52670000005</v>
       </c>
       <c r="K88">
@@ -17646,7 +17646,7 @@
         <v>95519.8</v>
       </c>
       <c r="B89" s="2">
-        <f>(100000*K89)+100000</f>
+        <f t="shared" si="1"/>
         <v>-11451.316600000006</v>
       </c>
       <c r="K89">
@@ -17658,7 +17658,7 @@
         <v>111417.4</v>
       </c>
       <c r="B90" s="2">
-        <f>(100000*K90)+100000</f>
+        <f t="shared" si="1"/>
         <v>124063.24739999999</v>
       </c>
       <c r="K90">
@@ -17670,7 +17670,7 @@
         <v>129289.8</v>
       </c>
       <c r="B91" s="2">
-        <f>(100000*K91)+100000</f>
+        <f t="shared" si="1"/>
         <v>141236.04989999998</v>
       </c>
       <c r="K91">
@@ -17682,7 +17682,7 @@
         <v>112592</v>
       </c>
       <c r="B92" s="2">
-        <f>(100000*K92)+100000</f>
+        <f t="shared" si="1"/>
         <v>162368</v>
       </c>
       <c r="K92">
@@ -17694,7 +17694,7 @@
         <v>149556.29999999999</v>
       </c>
       <c r="B93" s="2">
-        <f>(100000*K93)+100000</f>
+        <f t="shared" si="1"/>
         <v>165804.1471</v>
       </c>
       <c r="K93">
@@ -17706,7 +17706,7 @@
         <v>113883.5</v>
       </c>
       <c r="B94" s="2">
-        <f>(100000*K94)+100000</f>
+        <f t="shared" si="1"/>
         <v>156731.11350000001</v>
       </c>
       <c r="K94">
@@ -17718,7 +17718,7 @@
         <v>171675.1</v>
       </c>
       <c r="B95" s="2">
-        <f>(100000*K95)+100000</f>
+        <f t="shared" si="1"/>
         <v>176643.4944</v>
       </c>
       <c r="K95">
@@ -17730,7 +17730,7 @@
         <v>119990.5</v>
       </c>
       <c r="B96" s="2">
-        <f>(100000*K96)+100000</f>
+        <f t="shared" si="1"/>
         <v>135247.30530000001</v>
       </c>
       <c r="K96">
@@ -17742,7 +17742,7 @@
         <v>109562.8</v>
       </c>
       <c r="B97" s="2">
-        <f>(100000*K97)+100000</f>
+        <f t="shared" si="1"/>
         <v>130845.61679999999</v>
       </c>
       <c r="K97">
@@ -17754,7 +17754,7 @@
         <v>154855.45000000001</v>
       </c>
       <c r="B98" s="2">
-        <f>(100000*K98)+100000</f>
+        <f t="shared" si="1"/>
         <v>161625.0612</v>
       </c>
       <c r="K98">
@@ -17766,7 +17766,7 @@
         <v>158458.21</v>
       </c>
       <c r="B99" s="2">
-        <f>(100000*K99)+100000</f>
+        <f t="shared" si="1"/>
         <v>154452.90289999999</v>
       </c>
       <c r="K99">
@@ -17778,7 +17778,7 @@
         <v>141102.29999999999</v>
       </c>
       <c r="B100" s="2">
-        <f>(100000*K100)+100000</f>
+        <f t="shared" si="1"/>
         <v>141245.2499</v>
       </c>
       <c r="K100">
@@ -17790,7 +17790,7 @@
         <v>121669.9</v>
       </c>
       <c r="B101" s="2">
-        <f>(100000*K101)+100000</f>
+        <f t="shared" si="1"/>
         <v>152505.55119999999</v>
       </c>
       <c r="K101">
@@ -17802,7 +17802,7 @@
         <v>82253.7</v>
       </c>
       <c r="B102" s="2">
-        <f>(100000*K102)+100000</f>
+        <f t="shared" si="1"/>
         <v>47268.193199999994</v>
       </c>
       <c r="K102">
@@ -17814,7 +17814,7 @@
         <v>116822.36</v>
       </c>
       <c r="B103" s="2">
-        <f>(100000*K103)+100000</f>
+        <f t="shared" si="1"/>
         <v>181552.01140000002</v>
       </c>
       <c r="K103">
@@ -17826,7 +17826,7 @@
         <v>155389.20000000001</v>
       </c>
       <c r="B104" s="2">
-        <f>(100000*K104)+100000</f>
+        <f t="shared" si="1"/>
         <v>154762.00810000001</v>
       </c>
       <c r="K104">
@@ -17838,7 +17838,7 @@
         <v>101758.1</v>
       </c>
       <c r="B105" s="2">
-        <f>(100000*K105)+100000</f>
+        <f t="shared" si="1"/>
         <v>104723.9264</v>
       </c>
       <c r="K105">
@@ -17850,7 +17850,7 @@
         <v>99568.2</v>
       </c>
       <c r="B106" s="2">
-        <f>(100000*K106)+100000</f>
+        <f t="shared" si="1"/>
         <v>126744.49460000001</v>
       </c>
       <c r="K106">
@@ -17862,7 +17862,7 @@
         <v>146597.35</v>
       </c>
       <c r="B107" s="2">
-        <f>(100000*K107)+100000</f>
+        <f t="shared" si="1"/>
         <v>166385.56579999998</v>
       </c>
       <c r="K107">
@@ -17874,7 +17874,7 @@
         <v>129986.52</v>
       </c>
       <c r="B108" s="2">
-        <f>(100000*K108)+100000</f>
+        <f t="shared" si="1"/>
         <v>155253.18170000002</v>
       </c>
       <c r="K108">
@@ -17886,7 +17886,7 @@
         <v>144912.30499999999</v>
       </c>
       <c r="B109" s="2">
-        <f>(100000*K109)+100000</f>
+        <f t="shared" si="1"/>
         <v>169255.66340000002</v>
       </c>
       <c r="K109">
@@ -17898,7 +17898,7 @@
         <v>99130.1</v>
       </c>
       <c r="B110" s="2">
-        <f>(100000*K110)+100000</f>
+        <f t="shared" si="1"/>
         <v>111692.55929999999</v>
       </c>
       <c r="K110">
@@ -17910,7 +17910,7 @@
         <v>121351.85</v>
       </c>
       <c r="B111" s="2">
-        <f>(100000*K111)+100000</f>
+        <f t="shared" si="1"/>
         <v>158410.78769999999</v>
       </c>
       <c r="K111">
@@ -17922,7 +17922,7 @@
         <v>92790.5</v>
       </c>
       <c r="B112" s="2">
-        <f>(100000*K112)+100000</f>
+        <f t="shared" si="1"/>
         <v>102497.3619</v>
       </c>
       <c r="K112">
@@ -17934,7 +17934,7 @@
         <v>109268.6</v>
       </c>
       <c r="B113" s="2">
-        <f>(100000*K113)+100000</f>
+        <f t="shared" si="1"/>
         <v>158819.58419999998</v>
       </c>
       <c r="K113">
@@ -17946,7 +17946,7 @@
         <v>140061.04999999999</v>
       </c>
       <c r="B114" s="2">
-        <f>(100000*K114)+100000</f>
+        <f t="shared" si="1"/>
         <v>156109.03390000001</v>
       </c>
       <c r="K114">
@@ -17958,7 +17958,7 @@
         <v>142379.29999999999</v>
       </c>
       <c r="B115" s="2">
-        <f>(100000*K115)+100000</f>
+        <f t="shared" si="1"/>
         <v>161245.76269999999</v>
       </c>
       <c r="K115">
@@ -17970,7 +17970,7 @@
         <v>108609.5</v>
       </c>
       <c r="B116" s="2">
-        <f>(100000*K116)+100000</f>
+        <f t="shared" si="1"/>
         <v>139189.6024</v>
       </c>
       <c r="K116">
@@ -17982,7 +17982,7 @@
         <v>113586.7</v>
       </c>
       <c r="B117" s="2">
-        <f>(100000*K117)+100000</f>
+        <f t="shared" si="1"/>
         <v>133040.47690000001</v>
       </c>
       <c r="K117">
@@ -17994,7 +17994,7 @@
         <v>97692.71</v>
       </c>
       <c r="B118" s="2">
-        <f>(100000*K118)+100000</f>
+        <f t="shared" si="1"/>
         <v>97063.345600000001</v>
       </c>
       <c r="K118">
@@ -18006,7 +18006,7 @@
         <v>121775.6</v>
       </c>
       <c r="B119" s="2">
-        <f>(100000*K119)+100000</f>
+        <f t="shared" si="1"/>
         <v>133764.32560000001</v>
       </c>
       <c r="K119">
@@ -18018,7 +18018,7 @@
         <v>108831.9</v>
       </c>
       <c r="B120" s="2">
-        <f>(100000*K120)+100000</f>
+        <f t="shared" si="1"/>
         <v>133077.1801</v>
       </c>
       <c r="K120">
@@ -18030,7 +18030,7 @@
         <v>95913.600000000006</v>
       </c>
       <c r="B121" s="2">
-        <f>(100000*K121)+100000</f>
+        <f t="shared" si="1"/>
         <v>78252.788100000005</v>
       </c>
       <c r="K121">
@@ -18042,7 +18042,7 @@
         <v>101091</v>
       </c>
       <c r="B122" s="2">
-        <f>(100000*K122)+100000</f>
+        <f t="shared" si="1"/>
         <v>124781.93950000001</v>
       </c>
       <c r="K122">
@@ -18054,7 +18054,7 @@
         <v>149800.4</v>
       </c>
       <c r="B123" s="2">
-        <f>(100000*K123)+100000</f>
+        <f t="shared" si="1"/>
         <v>159779.43789999999</v>
       </c>
       <c r="K123">
@@ -18066,7 +18066,7 @@
         <v>87296.75</v>
       </c>
       <c r="B124" s="2">
-        <f>(100000*K124)+100000</f>
+        <f t="shared" si="1"/>
         <v>52459.0164</v>
       </c>
       <c r="K124">
@@ -18078,7 +18078,7 @@
         <v>102774.7</v>
       </c>
       <c r="B125" s="2">
-        <f>(100000*K125)+100000</f>
+        <f t="shared" si="1"/>
         <v>156605.0496</v>
       </c>
       <c r="K125">
@@ -18090,7 +18090,7 @@
         <v>110952.7</v>
       </c>
       <c r="B126" s="2">
-        <f>(100000*K126)+100000</f>
+        <f t="shared" si="1"/>
         <v>147823.5968</v>
       </c>
       <c r="K126">
@@ -18102,7 +18102,7 @@
         <v>129291.5</v>
       </c>
       <c r="B127" s="2">
-        <f>(100000*K127)+100000</f>
+        <f t="shared" si="1"/>
         <v>117921.0509</v>
       </c>
       <c r="K127">
@@ -18114,7 +18114,7 @@
         <v>140089.9</v>
       </c>
       <c r="B128" s="2">
-        <f>(100000*K128)+100000</f>
+        <f t="shared" si="1"/>
         <v>151640.0336</v>
       </c>
       <c r="K128">
@@ -18126,7 +18126,7 @@
         <v>119168.15</v>
       </c>
       <c r="B129" s="2">
-        <f>(100000*K129)+100000</f>
+        <f t="shared" si="1"/>
         <v>137448.14869999999</v>
       </c>
       <c r="K129">
@@ -18138,7 +18138,7 @@
         <v>122339.07</v>
       </c>
       <c r="B130" s="2">
-        <f>(100000*K130)+100000</f>
+        <f t="shared" ref="B130:B193" si="2">(100000*K130)+100000</f>
         <v>116769.40640000001</v>
       </c>
       <c r="K130">
@@ -18150,7 +18150,7 @@
         <v>111158</v>
       </c>
       <c r="B131" s="2">
-        <f>(100000*K131)+100000</f>
+        <f t="shared" si="2"/>
         <v>125715.1939</v>
       </c>
       <c r="K131">
@@ -18162,7 +18162,7 @@
         <v>78493.7</v>
       </c>
       <c r="B132" s="2">
-        <f>(100000*K132)+100000</f>
+        <f t="shared" si="2"/>
         <v>-109126.29759999999</v>
       </c>
       <c r="K132">
@@ -18174,7 +18174,7 @@
         <v>120225.7</v>
       </c>
       <c r="B133" s="2">
-        <f>(100000*K133)+100000</f>
+        <f t="shared" si="2"/>
         <v>141632.69469999999</v>
       </c>
       <c r="K133">
@@ -18186,7 +18186,7 @@
         <v>110876.9</v>
       </c>
       <c r="B134" s="2">
-        <f>(100000*K134)+100000</f>
+        <f t="shared" si="2"/>
         <v>143135.87210000001</v>
       </c>
       <c r="K134">
@@ -18198,7 +18198,7 @@
         <v>105273.1</v>
       </c>
       <c r="B135" s="2">
-        <f>(100000*K135)+100000</f>
+        <f t="shared" si="2"/>
         <v>115011.2867</v>
       </c>
       <c r="K135">
@@ -18210,7 +18210,7 @@
         <v>158275.1</v>
       </c>
       <c r="B136" s="2">
-        <f>(100000*K136)+100000</f>
+        <f t="shared" si="2"/>
         <v>151027.04550000001</v>
       </c>
       <c r="K136">
@@ -18222,7 +18222,7 @@
         <v>140330</v>
       </c>
       <c r="B137" s="2">
-        <f>(100000*K137)+100000</f>
+        <f t="shared" si="2"/>
         <v>144519.4878</v>
       </c>
       <c r="K137">
@@ -18234,7 +18234,7 @@
         <v>143001.66</v>
       </c>
       <c r="B138" s="2">
-        <f>(100000*K138)+100000</f>
+        <f t="shared" si="2"/>
         <v>180693.9246</v>
       </c>
       <c r="K138">
@@ -18246,7 +18246,7 @@
         <v>127692.71</v>
       </c>
       <c r="B139" s="2">
-        <f>(100000*K139)+100000</f>
+        <f t="shared" si="2"/>
         <v>178622.69640000002</v>
       </c>
       <c r="K139">
@@ -18258,7 +18258,7 @@
         <v>111707.7</v>
       </c>
       <c r="B140" s="2">
-        <f>(100000*K140)+100000</f>
+        <f t="shared" si="2"/>
         <v>134109.0147</v>
       </c>
       <c r="K140">
@@ -18270,7 +18270,7 @@
         <v>103061.7</v>
       </c>
       <c r="B141" s="2">
-        <f>(100000*K141)+100000</f>
+        <f t="shared" si="2"/>
         <v>140874.98000000001</v>
       </c>
       <c r="K141">
@@ -18282,7 +18282,7 @@
         <v>142092.20000000001</v>
       </c>
       <c r="B142" s="2">
-        <f>(100000*K142)+100000</f>
+        <f t="shared" si="2"/>
         <v>165721.8475</v>
       </c>
       <c r="K142">
@@ -18294,7 +18294,7 @@
         <v>110725</v>
       </c>
       <c r="B143" s="2">
-        <f>(100000*K143)+100000</f>
+        <f t="shared" si="2"/>
         <v>170744.68090000001</v>
       </c>
       <c r="K143">
@@ -18306,7 +18306,7 @@
         <v>203327.6</v>
       </c>
       <c r="B144" s="2">
-        <f>(100000*K144)+100000</f>
+        <f t="shared" si="2"/>
         <v>174521.61069999999</v>
       </c>
       <c r="K144">
@@ -18318,7 +18318,7 @@
         <v>119480.8</v>
       </c>
       <c r="B145" s="2">
-        <f>(100000*K145)+100000</f>
+        <f t="shared" si="2"/>
         <v>149386.9798</v>
       </c>
       <c r="K145">
@@ -18330,7 +18330,7 @@
         <v>124994.6</v>
       </c>
       <c r="B146" s="2">
-        <f>(100000*K146)+100000</f>
+        <f t="shared" si="2"/>
         <v>149743.45819999999</v>
       </c>
       <c r="K146">
@@ -18342,7 +18342,7 @@
         <v>101854.9</v>
       </c>
       <c r="B147" s="2">
-        <f>(100000*K147)+100000</f>
+        <f t="shared" si="2"/>
         <v>125630.4203</v>
       </c>
       <c r="K147">
@@ -18354,7 +18354,7 @@
         <v>128131.2</v>
       </c>
       <c r="B148" s="2">
-        <f>(100000*K148)+100000</f>
+        <f t="shared" si="2"/>
         <v>146471.8744</v>
       </c>
       <c r="K148">
@@ -18366,7 +18366,7 @@
         <v>106152.1</v>
       </c>
       <c r="B149" s="2">
-        <f>(100000*K149)+100000</f>
+        <f t="shared" si="2"/>
         <v>125594.5923</v>
       </c>
       <c r="K149">
@@ -18378,7 +18378,7 @@
         <v>118912.3</v>
       </c>
       <c r="B150" s="2">
-        <f>(100000*K150)+100000</f>
+        <f t="shared" si="2"/>
         <v>143989.8462</v>
       </c>
       <c r="K150">
@@ -18390,7 +18390,7 @@
         <v>163983.79999999999</v>
       </c>
       <c r="B151" s="2">
-        <f>(100000*K151)+100000</f>
+        <f t="shared" si="2"/>
         <v>159129.03229999999</v>
       </c>
       <c r="K151">
@@ -18402,7 +18402,7 @@
         <v>162841</v>
       </c>
       <c r="B152" s="2">
-        <f>(100000*K152)+100000</f>
+        <f t="shared" si="2"/>
         <v>185883.78710000002</v>
       </c>
       <c r="K152">
@@ -18414,7 +18414,7 @@
         <v>143342.1</v>
       </c>
       <c r="B153" s="2">
-        <f>(100000*K153)+100000</f>
+        <f t="shared" si="2"/>
         <v>151313.39050000001</v>
       </c>
       <c r="K153">
@@ -18426,7 +18426,7 @@
         <v>59577.7</v>
       </c>
       <c r="B154" s="2">
-        <f>(100000*K154)+100000</f>
+        <f t="shared" si="2"/>
         <v>-349923.78049999999</v>
       </c>
       <c r="K154">
@@ -18438,7 +18438,7 @@
         <v>95565.9</v>
       </c>
       <c r="B155" s="2">
-        <f>(100000*K155)+100000</f>
+        <f t="shared" si="2"/>
         <v>110637.928</v>
       </c>
       <c r="K155">
@@ -18450,7 +18450,7 @@
         <v>114493.72</v>
       </c>
       <c r="B156" s="2">
-        <f>(100000*K156)+100000</f>
+        <f t="shared" si="2"/>
         <v>153539.823</v>
       </c>
       <c r="K156">
@@ -18462,7 +18462,7 @@
         <v>130851.9</v>
       </c>
       <c r="B157" s="2">
-        <f>(100000*K157)+100000</f>
+        <f t="shared" si="2"/>
         <v>138954.2703</v>
       </c>
       <c r="K157">
@@ -18474,7 +18474,7 @@
         <v>97911.76</v>
       </c>
       <c r="B158" s="2">
-        <f>(100000*K158)+100000</f>
+        <f t="shared" si="2"/>
         <v>85430.597800000003</v>
       </c>
       <c r="K158">
@@ -18486,7 +18486,7 @@
         <v>117978.9</v>
       </c>
       <c r="B159" s="2">
-        <f>(100000*K159)+100000</f>
+        <f t="shared" si="2"/>
         <v>130278.6833</v>
       </c>
       <c r="K159">
@@ -18498,7 +18498,7 @@
         <v>151333.79999999999</v>
       </c>
       <c r="B160" s="2">
-        <f>(100000*K160)+100000</f>
+        <f t="shared" si="2"/>
         <v>144957.14290000001</v>
       </c>
       <c r="K160">
@@ -18510,7 +18510,7 @@
         <v>165651.45000000001</v>
       </c>
       <c r="B161" s="2">
-        <f>(100000*K161)+100000</f>
+        <f t="shared" si="2"/>
         <v>164818.1654</v>
       </c>
       <c r="K161">
@@ -18522,7 +18522,7 @@
         <v>135796.6</v>
       </c>
       <c r="B162" s="2">
-        <f>(100000*K162)+100000</f>
+        <f t="shared" si="2"/>
         <v>162174.79670000001</v>
       </c>
       <c r="K162">
@@ -18534,7 +18534,7 @@
         <v>239297.53</v>
       </c>
       <c r="B163" s="2">
-        <f>(100000*K163)+100000</f>
+        <f t="shared" si="2"/>
         <v>179661.01689999999</v>
       </c>
       <c r="K163">
@@ -18546,7 +18546,7 @@
         <v>120054.6</v>
       </c>
       <c r="B164" s="2">
-        <f>(100000*K164)+100000</f>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="K164">
@@ -18558,7 +18558,7 @@
         <v>118390.1</v>
       </c>
       <c r="B165" s="2">
-        <f>(100000*K165)+100000</f>
+        <f t="shared" si="2"/>
         <v>137199.86749999999</v>
       </c>
       <c r="K165">
@@ -18570,7 +18570,7 @@
         <v>116804.5</v>
       </c>
       <c r="B166" s="2">
-        <f>(100000*K166)+100000</f>
+        <f t="shared" si="2"/>
         <v>167537.9589</v>
       </c>
       <c r="K166">
@@ -18582,7 +18582,7 @@
         <v>121914.2</v>
       </c>
       <c r="B167" s="2">
-        <f>(100000*K167)+100000</f>
+        <f t="shared" si="2"/>
         <v>162514.32939999999</v>
       </c>
       <c r="K167">
@@ -18594,7 +18594,7 @@
         <v>187533.3</v>
       </c>
       <c r="B168" s="2">
-        <f>(100000*K168)+100000</f>
+        <f t="shared" si="2"/>
         <v>169487.5319</v>
       </c>
       <c r="K168">
@@ -18606,7 +18606,7 @@
         <v>170004.5</v>
       </c>
       <c r="B169" s="2">
-        <f>(100000*K169)+100000</f>
+        <f t="shared" si="2"/>
         <v>164190.5834</v>
       </c>
       <c r="K169">
@@ -18618,7 +18618,7 @@
         <v>93051.6</v>
       </c>
       <c r="B170" s="2">
-        <f>(100000*K170)+100000</f>
+        <f t="shared" si="2"/>
         <v>131136.5165</v>
       </c>
       <c r="K170">
@@ -18630,7 +18630,7 @@
         <v>154872.1</v>
       </c>
       <c r="B171" s="2">
-        <f>(100000*K171)+100000</f>
+        <f t="shared" si="2"/>
         <v>158495.4773</v>
       </c>
       <c r="K171">
@@ -18642,7 +18642,7 @@
         <v>149777.9</v>
       </c>
       <c r="B172" s="2">
-        <f>(100000*K172)+100000</f>
+        <f t="shared" si="2"/>
         <v>168095.4057</v>
       </c>
       <c r="K172">
@@ -18654,7 +18654,7 @@
         <v>102862.9</v>
       </c>
       <c r="B173" s="2">
-        <f>(100000*K173)+100000</f>
+        <f t="shared" si="2"/>
         <v>119012.5202</v>
       </c>
       <c r="K173">
@@ -18666,7 +18666,7 @@
         <v>126698.9</v>
       </c>
       <c r="B174" s="2">
-        <f>(100000*K174)+100000</f>
+        <f t="shared" si="2"/>
         <v>148187.46059999999</v>
       </c>
       <c r="K174">
@@ -18678,7 +18678,7 @@
         <v>101919.6</v>
       </c>
       <c r="B175" s="2">
-        <f>(100000*K175)+100000</f>
+        <f t="shared" si="2"/>
         <v>132761.90480000002</v>
       </c>
       <c r="K175">
@@ -18690,7 +18690,7 @@
         <v>128033.75</v>
       </c>
       <c r="B176" s="2">
-        <f>(100000*K176)+100000</f>
+        <f t="shared" si="2"/>
         <v>142021.3328</v>
       </c>
       <c r="K176">
@@ -18702,7 +18702,7 @@
         <v>85707.7</v>
       </c>
       <c r="B177" s="2">
-        <f>(100000*K177)+100000</f>
+        <f t="shared" si="2"/>
         <v>127410.9561</v>
       </c>
       <c r="K177">
@@ -18714,7 +18714,7 @@
         <v>100196.7</v>
       </c>
       <c r="B178" s="2">
-        <f>(100000*K178)+100000</f>
+        <f t="shared" si="2"/>
         <v>104494.9905</v>
       </c>
       <c r="K178">
@@ -18726,7 +18726,7 @@
         <v>151612.20000000001</v>
       </c>
       <c r="B179" s="2">
-        <f>(100000*K179)+100000</f>
+        <f t="shared" si="2"/>
         <v>158350.77439999999</v>
       </c>
       <c r="K179">
@@ -18738,7 +18738,7 @@
         <v>103532.6</v>
       </c>
       <c r="B180" s="2">
-        <f>(100000*K180)+100000</f>
+        <f t="shared" si="2"/>
         <v>132208.1183</v>
       </c>
       <c r="K180">
@@ -18750,7 +18750,7 @@
         <v>93320.9</v>
       </c>
       <c r="B181" s="2">
-        <f>(100000*K181)+100000</f>
+        <f t="shared" si="2"/>
         <v>73536.567899999995</v>
       </c>
       <c r="K181">
@@ -18762,7 +18762,7 @@
         <v>130572.85</v>
       </c>
       <c r="B182" s="2">
-        <f>(100000*K182)+100000</f>
+        <f t="shared" si="2"/>
         <v>125560.5064</v>
       </c>
       <c r="K182">
@@ -18774,7 +18774,7 @@
         <v>121951.9</v>
       </c>
       <c r="B183" s="2">
-        <f>(100000*K183)+100000</f>
+        <f t="shared" si="2"/>
         <v>153401.46590000001</v>
       </c>
       <c r="K183">
@@ -18786,7 +18786,7 @@
         <v>95038.5</v>
       </c>
       <c r="B184" s="2">
-        <f>(100000*K184)+100000</f>
+        <f t="shared" si="2"/>
         <v>108254.166</v>
       </c>
       <c r="K184">
@@ -18798,7 +18798,7 @@
         <v>100944.7</v>
       </c>
       <c r="B185" s="2">
-        <f>(100000*K185)+100000</f>
+        <f t="shared" si="2"/>
         <v>107258.06449999999</v>
       </c>
       <c r="K185">
@@ -18810,7 +18810,7 @@
         <v>93703.5</v>
       </c>
       <c r="B186" s="2">
-        <f>(100000*K186)+100000</f>
+        <f t="shared" si="2"/>
         <v>128652.65760000001</v>
       </c>
       <c r="K186">
@@ -18822,7 +18822,7 @@
         <v>103015.5</v>
       </c>
       <c r="B187" s="2">
-        <f>(100000*K187)+100000</f>
+        <f t="shared" si="2"/>
         <v>127135.9347</v>
       </c>
       <c r="K187">
@@ -18834,7 +18834,7 @@
         <v>109149.1</v>
       </c>
       <c r="B188" s="2">
-        <f>(100000*K188)+100000</f>
+        <f t="shared" si="2"/>
         <v>78665.946500000005</v>
       </c>
       <c r="K188">
@@ -18846,7 +18846,7 @@
         <v>84442.4</v>
       </c>
       <c r="B189" s="2">
-        <f>(100000*K189)+100000</f>
+        <f t="shared" si="2"/>
         <v>118058.3842</v>
       </c>
       <c r="K189">
@@ -18858,7 +18858,7 @@
         <v>60142.9</v>
       </c>
       <c r="B190" s="2">
-        <f>(100000*K190)+100000</f>
+        <f t="shared" si="2"/>
         <v>76256.85560000001</v>
       </c>
       <c r="K190">
@@ -18870,7 +18870,7 @@
         <v>107065.1</v>
       </c>
       <c r="B191" s="2">
-        <f>(100000*K191)+100000</f>
+        <f t="shared" si="2"/>
         <v>127737.7395</v>
       </c>
       <c r="K191">
@@ -18882,7 +18882,7 @@
         <v>115427</v>
       </c>
       <c r="B192" s="2">
-        <f>(100000*K192)+100000</f>
+        <f t="shared" si="2"/>
         <v>151435.375</v>
       </c>
       <c r="K192">
@@ -18894,7 +18894,7 @@
         <v>104056.1</v>
       </c>
       <c r="B193" s="2">
-        <f>(100000*K193)+100000</f>
+        <f t="shared" si="2"/>
         <v>118507.42540000001</v>
       </c>
       <c r="K193">
@@ -18906,7 +18906,7 @@
         <v>106805.7</v>
       </c>
       <c r="B194" s="2">
-        <f>(100000*K194)+100000</f>
+        <f t="shared" ref="B194:B257" si="3">(100000*K194)+100000</f>
         <v>124394.40459999999</v>
       </c>
       <c r="K194">
@@ -18918,7 +18918,7 @@
         <v>71668.7</v>
       </c>
       <c r="B195" s="2">
-        <f>(100000*K195)+100000</f>
+        <f t="shared" si="3"/>
         <v>74427.934600000008</v>
       </c>
       <c r="K195">
@@ -18930,7 +18930,7 @@
         <v>86969.8</v>
       </c>
       <c r="B196" s="2">
-        <f>(100000*K196)+100000</f>
+        <f t="shared" si="3"/>
         <v>90965.3465</v>
       </c>
       <c r="K196">
@@ -18942,7 +18942,7 @@
         <v>99005.8</v>
       </c>
       <c r="B197" s="2">
-        <f>(100000*K197)+100000</f>
+        <f t="shared" si="3"/>
         <v>104564.9918</v>
       </c>
       <c r="K197">
@@ -18954,7 +18954,7 @@
         <v>151764.5</v>
       </c>
       <c r="B198" s="2">
-        <f>(100000*K198)+100000</f>
+        <f t="shared" si="3"/>
         <v>167028.83410000001</v>
       </c>
       <c r="K198">
@@ -18966,7 +18966,7 @@
         <v>117219.5</v>
       </c>
       <c r="B199" s="2">
-        <f>(100000*K199)+100000</f>
+        <f t="shared" si="3"/>
         <v>137001.3235</v>
       </c>
       <c r="K199">
@@ -18978,7 +18978,7 @@
         <v>67167.3</v>
       </c>
       <c r="B200" s="2">
-        <f>(100000*K200)+100000</f>
+        <f t="shared" si="3"/>
         <v>70241.343099999998</v>
       </c>
       <c r="K200">
@@ -18990,7 +18990,7 @@
         <v>113192.35</v>
       </c>
       <c r="B201" s="2">
-        <f>(100000*K201)+100000</f>
+        <f t="shared" si="3"/>
         <v>159746.022</v>
       </c>
       <c r="K201">
@@ -19002,7 +19002,7 @@
         <v>115962.25</v>
       </c>
       <c r="B202" s="2">
-        <f>(100000*K202)+100000</f>
+        <f t="shared" si="3"/>
         <v>148555.93309999999</v>
       </c>
       <c r="K202">
@@ -19014,7 +19014,7 @@
         <v>92192.270999999993</v>
       </c>
       <c r="B203" s="2">
-        <f>(100000*K203)+100000</f>
+        <f t="shared" si="3"/>
         <v>81507.86</v>
       </c>
       <c r="K203">
@@ -19026,7 +19026,7 @@
         <v>259565.546</v>
       </c>
       <c r="B204" s="2">
-        <f>(100000*K204)+100000</f>
+        <f t="shared" si="3"/>
         <v>151714.1391</v>
       </c>
       <c r="K204">
@@ -19038,7 +19038,7 @@
         <v>105930.2</v>
       </c>
       <c r="B205" s="2">
-        <f>(100000*K205)+100000</f>
+        <f t="shared" si="3"/>
         <v>154708.94459999999</v>
       </c>
       <c r="K205">
@@ -19050,7 +19050,7 @@
         <v>88484.736000000004</v>
       </c>
       <c r="B206" s="2">
-        <f>(100000*K206)+100000</f>
+        <f t="shared" si="3"/>
         <v>73453.910999999993</v>
       </c>
       <c r="K206">
@@ -19062,7 +19062,7 @@
         <v>227168.95</v>
       </c>
       <c r="B207" s="2">
-        <f>(100000*K207)+100000</f>
+        <f t="shared" si="3"/>
         <v>177749.9656</v>
       </c>
       <c r="K207">
@@ -19074,7 +19074,7 @@
         <v>164643</v>
       </c>
       <c r="B208" s="2">
-        <f>(100000*K208)+100000</f>
+        <f t="shared" si="3"/>
         <v>155097.09849999999</v>
       </c>
       <c r="K208">
@@ -19086,7 +19086,7 @@
         <v>105179.9</v>
       </c>
       <c r="B209" s="2">
-        <f>(100000*K209)+100000</f>
+        <f t="shared" si="3"/>
         <v>135852.48879999999</v>
       </c>
       <c r="K209">
@@ -19098,7 +19098,7 @@
         <v>105391.1</v>
       </c>
       <c r="B210" s="2">
-        <f>(100000*K210)+100000</f>
+        <f t="shared" si="3"/>
         <v>112485.5156</v>
       </c>
       <c r="K210">
@@ -19110,7 +19110,7 @@
         <v>120168.15</v>
       </c>
       <c r="B211" s="2">
-        <f>(100000*K211)+100000</f>
+        <f t="shared" si="3"/>
         <v>149695.61629999999</v>
       </c>
       <c r="K211">
@@ -19122,7 +19122,7 @@
         <v>98047.86</v>
       </c>
       <c r="B212" s="2">
-        <f>(100000*K212)+100000</f>
+        <f t="shared" si="3"/>
         <v>66241.436300000001</v>
       </c>
       <c r="K212">
@@ -19134,7 +19134,7 @@
         <v>112506</v>
       </c>
       <c r="B213" s="2">
-        <f>(100000*K213)+100000</f>
+        <f t="shared" si="3"/>
         <v>139157.10159999999</v>
       </c>
       <c r="K213">
@@ -19146,7 +19146,7 @@
         <v>110213.35</v>
       </c>
       <c r="B214" s="2">
-        <f>(100000*K214)+100000</f>
+        <f t="shared" si="3"/>
         <v>144820.76639999999</v>
       </c>
       <c r="K214">
@@ -19158,7 +19158,7 @@
         <v>125498.6</v>
       </c>
       <c r="B215" s="2">
-        <f>(100000*K215)+100000</f>
+        <f t="shared" si="3"/>
         <v>151826.62540000002</v>
       </c>
       <c r="K215">
@@ -19170,7 +19170,7 @@
         <v>132244.5</v>
       </c>
       <c r="B216" s="2">
-        <f>(100000*K216)+100000</f>
+        <f t="shared" si="3"/>
         <v>131214.7953</v>
       </c>
       <c r="K216">
@@ -19182,7 +19182,7 @@
         <v>106967.4</v>
       </c>
       <c r="B217" s="2">
-        <f>(100000*K217)+100000</f>
+        <f t="shared" si="3"/>
         <v>158175.10550000001</v>
       </c>
       <c r="K217">
@@ -19194,7 +19194,7 @@
         <v>77470.5</v>
       </c>
       <c r="B218" s="2">
-        <f>(100000*K218)+100000</f>
+        <f t="shared" si="3"/>
         <v>-14032.8698</v>
       </c>
       <c r="K218">
@@ -19206,7 +19206,7 @@
         <v>58045.85</v>
       </c>
       <c r="B219" s="2">
-        <f>(100000*K219)+100000</f>
+        <f t="shared" si="3"/>
         <v>67105.98569999999</v>
       </c>
       <c r="K219">
@@ -19218,7 +19218,7 @@
         <v>117863</v>
       </c>
       <c r="B220" s="2">
-        <f>(100000*K220)+100000</f>
+        <f t="shared" si="3"/>
         <v>148532.5919</v>
       </c>
       <c r="K220">
@@ -19230,7 +19230,7 @@
         <v>108533.8</v>
       </c>
       <c r="B221" s="2">
-        <f>(100000*K221)+100000</f>
+        <f t="shared" si="3"/>
         <v>109847.61169999999</v>
       </c>
       <c r="K221">
@@ -19242,7 +19242,7 @@
         <v>210827.50099999999</v>
       </c>
       <c r="B222" s="2">
-        <f>(100000*K222)+100000</f>
+        <f t="shared" si="3"/>
         <v>184157.5092</v>
       </c>
       <c r="K222">
@@ -19254,7 +19254,7 @@
         <v>97152.6</v>
       </c>
       <c r="B223" s="2">
-        <f>(100000*K223)+100000</f>
+        <f t="shared" si="3"/>
         <v>119854.0419</v>
       </c>
       <c r="K223">
@@ -19266,7 +19266,7 @@
         <v>124631.4</v>
       </c>
       <c r="B224" s="2">
-        <f>(100000*K224)+100000</f>
+        <f t="shared" si="3"/>
         <v>125598.2934</v>
       </c>
       <c r="K224">
@@ -19278,7 +19278,7 @@
         <v>93630.2</v>
       </c>
       <c r="B225" s="2">
-        <f>(100000*K225)+100000</f>
+        <f t="shared" si="3"/>
         <v>108843.4195</v>
       </c>
       <c r="K225">
@@ -19290,7 +19290,7 @@
         <v>160670.20000000001</v>
       </c>
       <c r="B226" s="2">
-        <f>(100000*K226)+100000</f>
+        <f t="shared" si="3"/>
         <v>155975.8137</v>
       </c>
       <c r="K226">
@@ -19302,7 +19302,7 @@
         <v>105866.85</v>
       </c>
       <c r="B227" s="2">
-        <f>(100000*K227)+100000</f>
+        <f t="shared" si="3"/>
         <v>126466.55230000001</v>
       </c>
       <c r="K227">
@@ -19314,7 +19314,7 @@
         <v>123677.61</v>
       </c>
       <c r="B228" s="2">
-        <f>(100000*K228)+100000</f>
+        <f t="shared" si="3"/>
         <v>176388.7519</v>
       </c>
       <c r="K228">
@@ -19326,7 +19326,7 @@
         <v>106387.5</v>
       </c>
       <c r="B229" s="2">
-        <f>(100000*K229)+100000</f>
+        <f t="shared" si="3"/>
         <v>114689.4198</v>
       </c>
       <c r="K229">
@@ -19338,7 +19338,7 @@
         <v>126450.5</v>
       </c>
       <c r="B230" s="2">
-        <f>(100000*K230)+100000</f>
+        <f t="shared" si="3"/>
         <v>152755.10200000001</v>
       </c>
       <c r="K230">
@@ -19350,7 +19350,7 @@
         <v>107262.39999999999</v>
       </c>
       <c r="B231" s="2">
-        <f>(100000*K231)+100000</f>
+        <f t="shared" si="3"/>
         <v>120224.08960000001</v>
       </c>
       <c r="K231">
@@ -19362,7 +19362,7 @@
         <v>114052.5</v>
       </c>
       <c r="B232" s="2">
-        <f>(100000*K232)+100000</f>
+        <f t="shared" si="3"/>
         <v>126875.3973</v>
       </c>
       <c r="K232">
@@ -19374,7 +19374,7 @@
         <v>144989.35</v>
       </c>
       <c r="B233" s="2">
-        <f>(100000*K233)+100000</f>
+        <f t="shared" si="3"/>
         <v>177945.96669999999</v>
       </c>
       <c r="K233">
@@ -19386,7 +19386,7 @@
         <v>141618.1</v>
       </c>
       <c r="B234" s="2">
-        <f>(100000*K234)+100000</f>
+        <f t="shared" si="3"/>
         <v>151665.99109999998</v>
       </c>
       <c r="K234">
@@ -19398,7 +19398,7 @@
         <v>107465.8</v>
       </c>
       <c r="B235" s="2">
-        <f>(100000*K235)+100000</f>
+        <f t="shared" si="3"/>
         <v>108525.48540000001</v>
       </c>
       <c r="K235">
@@ -19410,7 +19410,7 @@
         <v>91316</v>
       </c>
       <c r="B236" s="2">
-        <f>(100000*K236)+100000</f>
+        <f t="shared" si="3"/>
         <v>-17466.743799999997</v>
       </c>
       <c r="K236">
@@ -19422,7 +19422,7 @@
         <v>103842.75</v>
       </c>
       <c r="B237" s="2">
-        <f>(100000*K237)+100000</f>
+        <f t="shared" si="3"/>
         <v>142334.0961</v>
       </c>
       <c r="K237">
@@ -19434,7 +19434,7 @@
         <v>74454.05</v>
       </c>
       <c r="B238" s="2">
-        <f>(100000*K238)+100000</f>
+        <f t="shared" si="3"/>
         <v>120051.2164</v>
       </c>
       <c r="K238">
@@ -19446,7 +19446,7 @@
         <v>171061.8</v>
       </c>
       <c r="B239" s="2">
-        <f>(100000*K239)+100000</f>
+        <f t="shared" si="3"/>
         <v>155254.95059999998</v>
       </c>
       <c r="K239">
@@ -19458,7 +19458,7 @@
         <v>189366.7</v>
       </c>
       <c r="B240" s="2">
-        <f>(100000*K240)+100000</f>
+        <f t="shared" si="3"/>
         <v>169414.67910000001</v>
       </c>
       <c r="K240">
@@ -19470,7 +19470,7 @@
         <v>123589.5</v>
       </c>
       <c r="B241" s="2">
-        <f>(100000*K241)+100000</f>
+        <f t="shared" si="3"/>
         <v>154137.5214</v>
       </c>
       <c r="K241">
@@ -19482,7 +19482,7 @@
         <v>132579.29999999999</v>
       </c>
       <c r="B242" s="2">
-        <f>(100000*K242)+100000</f>
+        <f t="shared" si="3"/>
         <v>148423.26559999998</v>
       </c>
       <c r="K242">
@@ -19494,7 +19494,7 @@
         <v>88417.3</v>
       </c>
       <c r="B243" s="2">
-        <f>(100000*K243)+100000</f>
+        <f t="shared" si="3"/>
         <v>132081.3976</v>
       </c>
       <c r="K243">
@@ -19506,7 +19506,7 @@
         <v>102556.9</v>
       </c>
       <c r="B244" s="2">
-        <f>(100000*K244)+100000</f>
+        <f t="shared" si="3"/>
         <v>111213.8189</v>
       </c>
       <c r="K244">
@@ -19518,7 +19518,7 @@
         <v>117494.8</v>
       </c>
       <c r="B245" s="2">
-        <f>(100000*K245)+100000</f>
+        <f t="shared" si="3"/>
         <v>138579.09950000001</v>
       </c>
       <c r="K245">
@@ -19530,7 +19530,7 @@
         <v>106625.24</v>
       </c>
       <c r="B246" s="2">
-        <f>(100000*K246)+100000</f>
+        <f t="shared" si="3"/>
         <v>128395.56</v>
       </c>
       <c r="K246">
@@ -19542,7 +19542,7 @@
         <v>100005.5</v>
       </c>
       <c r="B247" s="2">
-        <f>(100000*K247)+100000</f>
+        <f t="shared" si="3"/>
         <v>151211.07270000002</v>
       </c>
       <c r="K247">
@@ -19554,7 +19554,7 @@
         <v>160699.1</v>
       </c>
       <c r="B248" s="2">
-        <f>(100000*K248)+100000</f>
+        <f t="shared" si="3"/>
         <v>152272.44270000001</v>
       </c>
       <c r="K248">
@@ -19566,7 +19566,7 @@
         <v>113732.5</v>
       </c>
       <c r="B249" s="2">
-        <f>(100000*K249)+100000</f>
+        <f t="shared" si="3"/>
         <v>146987.3817</v>
       </c>
       <c r="K249">
@@ -19578,7 +19578,7 @@
         <v>86805</v>
       </c>
       <c r="B250" s="2">
-        <f>(100000*K250)+100000</f>
+        <f t="shared" si="3"/>
         <v>128227.0536</v>
       </c>
       <c r="K250">
@@ -19590,7 +19590,7 @@
         <v>98818.4</v>
       </c>
       <c r="B251" s="2">
-        <f>(100000*K251)+100000</f>
+        <f t="shared" si="3"/>
         <v>106993.59149999999</v>
       </c>
       <c r="K251">
@@ -19602,7 +19602,7 @@
         <v>132076.15</v>
       </c>
       <c r="B252" s="2">
-        <f>(100000*K252)+100000</f>
+        <f t="shared" si="3"/>
         <v>162264.9394</v>
       </c>
       <c r="K252">
@@ -19614,7 +19614,7 @@
         <v>104470.7</v>
       </c>
       <c r="B253" s="2">
-        <f>(100000*K253)+100000</f>
+        <f t="shared" si="3"/>
         <v>139381.29999999999</v>
       </c>
       <c r="K253">
@@ -19626,7 +19626,7 @@
         <v>96871.9</v>
       </c>
       <c r="B254" s="2">
-        <f>(100000*K254)+100000</f>
+        <f t="shared" si="3"/>
         <v>108329.54029999999</v>
       </c>
       <c r="K254">
@@ -19638,7 +19638,7 @@
         <v>110911.3</v>
       </c>
       <c r="B255" s="2">
-        <f>(100000*K255)+100000</f>
+        <f t="shared" si="3"/>
         <v>136926.36069999999</v>
       </c>
       <c r="K255">
@@ -19650,7 +19650,7 @@
         <v>74742.899999999994</v>
       </c>
       <c r="B256" s="2">
-        <f>(100000*K256)+100000</f>
+        <f t="shared" si="3"/>
         <v>5703.0482000000047</v>
       </c>
       <c r="K256">
@@ -19662,7 +19662,7 @@
         <v>112219.6</v>
       </c>
       <c r="B257" s="2">
-        <f>(100000*K257)+100000</f>
+        <f t="shared" si="3"/>
         <v>148061.087</v>
       </c>
       <c r="K257">
@@ -19674,7 +19674,7 @@
         <v>101831.8</v>
       </c>
       <c r="B258" s="2">
-        <f>(100000*K258)+100000</f>
+        <f t="shared" ref="B258:B321" si="4">(100000*K258)+100000</f>
         <v>122694.8839</v>
       </c>
       <c r="K258">
@@ -19686,7 +19686,7 @@
         <v>114941.636</v>
       </c>
       <c r="B259" s="2">
-        <f>(100000*K259)+100000</f>
+        <f t="shared" si="4"/>
         <v>135681.33309999999</v>
       </c>
       <c r="K259">
@@ -19698,7 +19698,7 @@
         <v>103609.05</v>
       </c>
       <c r="B260" s="2">
-        <f>(100000*K260)+100000</f>
+        <f t="shared" si="4"/>
         <v>145281.0018</v>
       </c>
       <c r="K260">
@@ -19710,7 +19710,7 @@
         <v>97062.9</v>
       </c>
       <c r="B261" s="2">
-        <f>(100000*K261)+100000</f>
+        <f t="shared" si="4"/>
         <v>153882.0583</v>
       </c>
       <c r="K261">
@@ -19722,7 +19722,7 @@
         <v>89889.4</v>
       </c>
       <c r="B262" s="2">
-        <f>(100000*K262)+100000</f>
+        <f t="shared" si="4"/>
         <v>86637.992800000007</v>
       </c>
       <c r="K262">
@@ -19734,7 +19734,7 @@
         <v>136843.20000000001</v>
       </c>
       <c r="B263" s="2">
-        <f>(100000*K263)+100000</f>
+        <f t="shared" si="4"/>
         <v>156269.49470000001</v>
       </c>
       <c r="K263">
@@ -19746,7 +19746,7 @@
         <v>133023.9</v>
       </c>
       <c r="B264" s="2">
-        <f>(100000*K264)+100000</f>
+        <f t="shared" si="4"/>
         <v>143888.85860000001</v>
       </c>
       <c r="K264">
@@ -19758,7 +19758,7 @@
         <v>164260.1</v>
       </c>
       <c r="B265" s="2">
-        <f>(100000*K265)+100000</f>
+        <f t="shared" si="4"/>
         <v>147017.1488</v>
       </c>
       <c r="K265">
@@ -19770,7 +19770,7 @@
         <v>120786.25</v>
       </c>
       <c r="B266" s="2">
-        <f>(100000*K266)+100000</f>
+        <f t="shared" si="4"/>
         <v>163287.52919999999</v>
       </c>
       <c r="K266">
@@ -19782,7 +19782,7 @@
         <v>117683.55</v>
       </c>
       <c r="B267" s="2">
-        <f>(100000*K267)+100000</f>
+        <f t="shared" si="4"/>
         <v>158523.69270000001</v>
       </c>
       <c r="K267">
@@ -19794,7 +19794,7 @@
         <v>128959.122</v>
       </c>
       <c r="B268" s="2">
-        <f>(100000*K268)+100000</f>
+        <f t="shared" si="4"/>
         <v>155531.4601</v>
       </c>
       <c r="K268">
@@ -19806,7 +19806,7 @@
         <v>90686.5</v>
       </c>
       <c r="B269" s="2">
-        <f>(100000*K269)+100000</f>
+        <f t="shared" si="4"/>
         <v>94898.618099999992</v>
       </c>
       <c r="K269">
@@ -19818,7 +19818,7 @@
         <v>163308.625</v>
       </c>
       <c r="B270" s="2">
-        <f>(100000*K270)+100000</f>
+        <f t="shared" si="4"/>
         <v>158266.7708</v>
       </c>
       <c r="K270">
@@ -19830,7 +19830,7 @@
         <v>97711.4</v>
       </c>
       <c r="B271" s="2">
-        <f>(100000*K271)+100000</f>
+        <f t="shared" si="4"/>
         <v>93637.532099999997</v>
       </c>
       <c r="K271">
@@ -19842,7 +19842,7 @@
         <v>82477.600000000006</v>
       </c>
       <c r="B272" s="2">
-        <f>(100000*K272)+100000</f>
+        <f t="shared" si="4"/>
         <v>86774.847899999993</v>
       </c>
       <c r="K272">
@@ -19854,7 +19854,7 @@
         <v>178333.9</v>
       </c>
       <c r="B273" s="2">
-        <f>(100000*K273)+100000</f>
+        <f t="shared" si="4"/>
         <v>169921.0055</v>
       </c>
       <c r="K273">
@@ -19866,7 +19866,7 @@
         <v>114010.5</v>
       </c>
       <c r="B274" s="2">
-        <f>(100000*K274)+100000</f>
+        <f t="shared" si="4"/>
         <v>142565.81950000001</v>
       </c>
       <c r="K274">
@@ -19878,7 +19878,7 @@
         <v>94885.35</v>
       </c>
       <c r="B275" s="2">
-        <f>(100000*K275)+100000</f>
+        <f t="shared" si="4"/>
         <v>150579.9903</v>
       </c>
       <c r="K275">
@@ -19890,7 +19890,7 @@
         <v>123203.5</v>
       </c>
       <c r="B276" s="2">
-        <f>(100000*K276)+100000</f>
+        <f t="shared" si="4"/>
         <v>155585.46429999999</v>
       </c>
       <c r="K276">
@@ -19902,7 +19902,7 @@
         <v>155007.07999999999</v>
       </c>
       <c r="B277" s="2">
-        <f>(100000*K277)+100000</f>
+        <f t="shared" si="4"/>
         <v>170450.31160000002</v>
       </c>
       <c r="K277">
@@ -19914,7 +19914,7 @@
         <v>189156.1</v>
       </c>
       <c r="B278" s="2">
-        <f>(100000*K278)+100000</f>
+        <f t="shared" si="4"/>
         <v>159410.6275</v>
       </c>
       <c r="K278">
@@ -19926,7 +19926,7 @@
         <v>73394.8</v>
       </c>
       <c r="B279" s="2">
-        <f>(100000*K279)+100000</f>
+        <f t="shared" si="4"/>
         <v>-12998.522900000011</v>
       </c>
       <c r="K279">
@@ -19938,7 +19938,7 @@
         <v>150769.5</v>
       </c>
       <c r="B280" s="2">
-        <f>(100000*K280)+100000</f>
+        <f t="shared" si="4"/>
         <v>155324.96309999999</v>
       </c>
       <c r="K280">
@@ -19950,7 +19950,7 @@
         <v>139922.1</v>
       </c>
       <c r="B281" s="2">
-        <f>(100000*K281)+100000</f>
+        <f t="shared" si="4"/>
         <v>161293.36350000001</v>
       </c>
       <c r="K281">
@@ -19962,7 +19962,7 @@
         <v>173384.5</v>
       </c>
       <c r="B282" s="2">
-        <f>(100000*K282)+100000</f>
+        <f t="shared" si="4"/>
         <v>164969.41819999999</v>
       </c>
       <c r="K282">
@@ -19974,7 +19974,7 @@
         <v>167463.35</v>
       </c>
       <c r="B283" s="2">
-        <f>(100000*K283)+100000</f>
+        <f t="shared" si="4"/>
         <v>161863.7237</v>
       </c>
       <c r="K283">
@@ -19986,7 +19986,7 @@
         <v>139838.1</v>
       </c>
       <c r="B284" s="2">
-        <f>(100000*K284)+100000</f>
+        <f t="shared" si="4"/>
         <v>141034.61689999999</v>
       </c>
       <c r="K284">
@@ -19998,7 +19998,7 @@
         <v>123380.9</v>
       </c>
       <c r="B285" s="2">
-        <f>(100000*K285)+100000</f>
+        <f t="shared" si="4"/>
         <v>128813.05040000001</v>
       </c>
       <c r="K285">
@@ -20010,7 +20010,7 @@
         <v>97688</v>
       </c>
       <c r="B286" s="2">
-        <f>(100000*K286)+100000</f>
+        <f t="shared" si="4"/>
         <v>119852.5716</v>
       </c>
       <c r="K286">
@@ -20022,7 +20022,7 @@
         <v>193681.6</v>
       </c>
       <c r="B287" s="2">
-        <f>(100000*K287)+100000</f>
+        <f t="shared" si="4"/>
         <v>180670.30069999999</v>
       </c>
       <c r="K287">
@@ -20034,7 +20034,7 @@
         <v>92807.9</v>
       </c>
       <c r="B288" s="2">
-        <f>(100000*K288)+100000</f>
+        <f t="shared" si="4"/>
         <v>130641.6948</v>
       </c>
       <c r="K288">
@@ -20046,7 +20046,7 @@
         <v>106031.5</v>
       </c>
       <c r="B289" s="2">
-        <f>(100000*K289)+100000</f>
+        <f t="shared" si="4"/>
         <v>132602.0288</v>
       </c>
       <c r="K289">
@@ -20058,7 +20058,7 @@
         <v>157784.79999999999</v>
       </c>
       <c r="B290" s="2">
-        <f>(100000*K290)+100000</f>
+        <f t="shared" si="4"/>
         <v>142749.38140000001</v>
       </c>
       <c r="K290">
@@ -20070,7 +20070,7 @@
         <v>125519.5</v>
       </c>
       <c r="B291" s="2">
-        <f>(100000*K291)+100000</f>
+        <f t="shared" si="4"/>
         <v>144093.8511</v>
       </c>
       <c r="K291">
@@ -20082,7 +20082,7 @@
         <v>116585.2</v>
       </c>
       <c r="B292" s="2">
-        <f>(100000*K292)+100000</f>
+        <f t="shared" si="4"/>
         <v>136035.24229999998</v>
       </c>
       <c r="K292">
@@ -20094,7 +20094,7 @@
         <v>120535.1</v>
       </c>
       <c r="B293" s="2">
-        <f>(100000*K293)+100000</f>
+        <f t="shared" si="4"/>
         <v>155513.63190000001</v>
       </c>
       <c r="K293">
@@ -20106,7 +20106,7 @@
         <v>131828.4</v>
       </c>
       <c r="B294" s="2">
-        <f>(100000*K294)+100000</f>
+        <f t="shared" si="4"/>
         <v>150189.3143</v>
       </c>
       <c r="K294">
@@ -20118,7 +20118,7 @@
         <v>106688.8</v>
       </c>
       <c r="B295" s="2">
-        <f>(100000*K295)+100000</f>
+        <f t="shared" si="4"/>
         <v>129979.1449</v>
       </c>
       <c r="K295">
@@ -20130,7 +20130,7 @@
         <v>112370</v>
       </c>
       <c r="B296" s="2">
-        <f>(100000*K296)+100000</f>
+        <f t="shared" si="4"/>
         <v>151658.3229</v>
       </c>
       <c r="K296">
@@ -20142,7 +20142,7 @@
         <v>105731.9</v>
       </c>
       <c r="B297" s="2">
-        <f>(100000*K297)+100000</f>
+        <f t="shared" si="4"/>
         <v>115482.5027</v>
       </c>
       <c r="K297">
@@ -20154,7 +20154,7 @@
         <v>108739.06</v>
       </c>
       <c r="B298" s="2">
-        <f>(100000*K298)+100000</f>
+        <f t="shared" si="4"/>
         <v>128586.04459999999</v>
       </c>
       <c r="K298">
@@ -20166,7 +20166,7 @@
         <v>100878.39999999999</v>
       </c>
       <c r="B299" s="2">
-        <f>(100000*K299)+100000</f>
+        <f t="shared" si="4"/>
         <v>135037.1341</v>
       </c>
       <c r="K299">
@@ -20178,7 +20178,7 @@
         <v>108872.895</v>
       </c>
       <c r="B300" s="2">
-        <f>(100000*K300)+100000</f>
+        <f t="shared" si="4"/>
         <v>151743.462</v>
       </c>
       <c r="K300">
@@ -20190,7 +20190,7 @@
         <v>90505.73</v>
       </c>
       <c r="B301" s="2">
-        <f>(100000*K301)+100000</f>
+        <f t="shared" si="4"/>
         <v>122784.6222</v>
       </c>
       <c r="K301">
@@ -20202,7 +20202,7 @@
         <v>105928.1</v>
       </c>
       <c r="B302" s="2">
-        <f>(100000*K302)+100000</f>
+        <f t="shared" si="4"/>
         <v>138160</v>
       </c>
       <c r="K302">
@@ -20214,7 +20214,7 @@
         <v>56747.58</v>
       </c>
       <c r="B303" s="2">
-        <f>(100000*K303)+100000</f>
+        <f t="shared" si="4"/>
         <v>85456.76</v>
       </c>
       <c r="K303">
@@ -20226,7 +20226,7 @@
         <v>96012.3</v>
       </c>
       <c r="B304" s="2">
-        <f>(100000*K304)+100000</f>
+        <f t="shared" si="4"/>
         <v>82541.720199999996</v>
       </c>
       <c r="K304">
@@ -20238,7 +20238,7 @@
         <v>108321.1</v>
       </c>
       <c r="B305" s="2">
-        <f>(100000*K305)+100000</f>
+        <f t="shared" si="4"/>
         <v>150384.2213</v>
       </c>
       <c r="K305">
@@ -20250,7 +20250,7 @@
         <v>142247.125</v>
       </c>
       <c r="B306" s="2">
-        <f>(100000*K306)+100000</f>
+        <f t="shared" si="4"/>
         <v>161392.54879999999</v>
       </c>
       <c r="K306">
@@ -20262,7 +20262,7 @@
         <v>165251.95000000001</v>
       </c>
       <c r="B307" s="2">
-        <f>(100000*K307)+100000</f>
+        <f t="shared" si="4"/>
         <v>171887.6439</v>
       </c>
       <c r="K307">
@@ -20274,7 +20274,7 @@
         <v>105061.1</v>
       </c>
       <c r="B308" s="2">
-        <f>(100000*K308)+100000</f>
+        <f t="shared" si="4"/>
         <v>138666.6667</v>
       </c>
       <c r="K308">
@@ -20286,7 +20286,7 @@
         <v>107452.05</v>
       </c>
       <c r="B309" s="2">
-        <f>(100000*K309)+100000</f>
+        <f t="shared" si="4"/>
         <v>148246.41940000001</v>
       </c>
       <c r="K309">
@@ -20298,7 +20298,7 @@
         <v>116509</v>
       </c>
       <c r="B310" s="2">
-        <f>(100000*K310)+100000</f>
+        <f t="shared" si="4"/>
         <v>136157.4803</v>
       </c>
       <c r="K310">
@@ -20310,7 +20310,7 @@
         <v>179760.99</v>
       </c>
       <c r="B311" s="2">
-        <f>(100000*K311)+100000</f>
+        <f t="shared" si="4"/>
         <v>170660.26929999999</v>
       </c>
       <c r="K311">
@@ -20322,7 +20322,7 @@
         <v>118814.6</v>
       </c>
       <c r="B312" s="2">
-        <f>(100000*K312)+100000</f>
+        <f t="shared" si="4"/>
         <v>136840.87</v>
       </c>
       <c r="K312">
@@ -20334,7 +20334,7 @@
         <v>90718.2</v>
       </c>
       <c r="B313" s="2">
-        <f>(100000*K313)+100000</f>
+        <f t="shared" si="4"/>
         <v>89832.007100000003</v>
       </c>
       <c r="K313">
@@ -20346,7 +20346,7 @@
         <v>96196.801999999996</v>
       </c>
       <c r="B314" s="2">
-        <f>(100000*K314)+100000</f>
+        <f t="shared" si="4"/>
         <v>114336.70209999999</v>
       </c>
       <c r="K314">
@@ -20358,7 +20358,7 @@
         <v>121024.64</v>
       </c>
       <c r="B315" s="2">
-        <f>(100000*K315)+100000</f>
+        <f t="shared" si="4"/>
         <v>137966.337</v>
       </c>
       <c r="K315">
@@ -20370,7 +20370,7 @@
         <v>108105.4</v>
       </c>
       <c r="B316" s="2">
-        <f>(100000*K316)+100000</f>
+        <f t="shared" si="4"/>
         <v>134432.40700000001</v>
       </c>
       <c r="K316">
@@ -20382,7 +20382,7 @@
         <v>126566.2</v>
       </c>
       <c r="B317" s="2">
-        <f>(100000*K317)+100000</f>
+        <f t="shared" si="4"/>
         <v>153003.67800000001</v>
       </c>
       <c r="K317">
@@ -20394,7 +20394,7 @@
         <v>110830.8</v>
       </c>
       <c r="B318" s="2">
-        <f>(100000*K318)+100000</f>
+        <f t="shared" si="4"/>
         <v>128219.7978</v>
       </c>
       <c r="K318">
@@ -20406,7 +20406,7 @@
         <v>123819.2</v>
       </c>
       <c r="B319" s="2">
-        <f>(100000*K319)+100000</f>
+        <f t="shared" si="4"/>
         <v>125934.5322</v>
       </c>
       <c r="K319">
@@ -20418,7 +20418,7 @@
         <v>98518.399999999994</v>
       </c>
       <c r="B320" s="2">
-        <f>(100000*K320)+100000</f>
+        <f t="shared" si="4"/>
         <v>96775.165800000002</v>
       </c>
       <c r="K320">
@@ -20430,7 +20430,7 @@
         <v>113093.3</v>
       </c>
       <c r="B321" s="2">
-        <f>(100000*K321)+100000</f>
+        <f t="shared" si="4"/>
         <v>143050.91039999999</v>
       </c>
       <c r="K321">
@@ -20442,7 +20442,7 @@
         <v>86995.7</v>
       </c>
       <c r="B322" s="2">
-        <f>(100000*K322)+100000</f>
+        <f t="shared" ref="B322:B385" si="5">(100000*K322)+100000</f>
         <v>112646.43240000001</v>
       </c>
       <c r="K322">
@@ -20454,7 +20454,7 @@
         <v>217688.5</v>
       </c>
       <c r="B323" s="2">
-        <f>(100000*K323)+100000</f>
+        <f t="shared" si="5"/>
         <v>162774.87410000002</v>
       </c>
       <c r="K323">
@@ -20466,7 +20466,7 @@
         <v>108459.5</v>
       </c>
       <c r="B324" s="2">
-        <f>(100000*K324)+100000</f>
+        <f t="shared" si="5"/>
         <v>113628.8005</v>
       </c>
       <c r="K324">
@@ -20478,7 +20478,7 @@
         <v>116145.55</v>
       </c>
       <c r="B325" s="2">
-        <f>(100000*K325)+100000</f>
+        <f t="shared" si="5"/>
         <v>151662.6256</v>
       </c>
       <c r="K325">
@@ -20490,7 +20490,7 @@
         <v>99020</v>
       </c>
       <c r="B326" s="2">
-        <f>(100000*K326)+100000</f>
+        <f t="shared" si="5"/>
         <v>141688.55040000001</v>
       </c>
       <c r="K326">
@@ -20502,7 +20502,7 @@
         <v>101505.64</v>
       </c>
       <c r="B327" s="2">
-        <f>(100000*K327)+100000</f>
+        <f t="shared" si="5"/>
         <v>101618.929</v>
       </c>
       <c r="K327">
@@ -20514,7 +20514,7 @@
         <v>139932.4</v>
       </c>
       <c r="B328" s="2">
-        <f>(100000*K328)+100000</f>
+        <f t="shared" si="5"/>
         <v>162203.46230000001</v>
       </c>
       <c r="K328">
@@ -20526,7 +20526,7 @@
         <v>88987.8</v>
       </c>
       <c r="B329" s="2">
-        <f>(100000*K329)+100000</f>
+        <f t="shared" si="5"/>
         <v>80000</v>
       </c>
       <c r="K329">
@@ -20538,7 +20538,7 @@
         <v>168935.1</v>
       </c>
       <c r="B330" s="2">
-        <f>(100000*K330)+100000</f>
+        <f t="shared" si="5"/>
         <v>164061.67189999999</v>
       </c>
       <c r="K330">
@@ -20550,7 +20550,7 @@
         <v>202969.60000000001</v>
       </c>
       <c r="B331" s="2">
-        <f>(100000*K331)+100000</f>
+        <f t="shared" si="5"/>
         <v>169290.29820000002</v>
       </c>
       <c r="K331">
@@ -20562,7 +20562,7 @@
         <v>97981.6</v>
       </c>
       <c r="B332" s="2">
-        <f>(100000*K332)+100000</f>
+        <f t="shared" si="5"/>
         <v>128371.65210000001</v>
       </c>
       <c r="K332">
@@ -20574,7 +20574,7 @@
         <v>104677.4</v>
       </c>
       <c r="B333" s="2">
-        <f>(100000*K333)+100000</f>
+        <f t="shared" si="5"/>
         <v>136980.70370000001</v>
       </c>
       <c r="K333">
@@ -20586,7 +20586,7 @@
         <v>102809.3</v>
       </c>
       <c r="B334" s="2">
-        <f>(100000*K334)+100000</f>
+        <f t="shared" si="5"/>
         <v>130177.5148</v>
       </c>
       <c r="K334">
@@ -20598,7 +20598,7 @@
         <v>102427.9</v>
       </c>
       <c r="B335" s="2">
-        <f>(100000*K335)+100000</f>
+        <f t="shared" si="5"/>
         <v>111405.7991</v>
       </c>
       <c r="K335">
@@ -20610,7 +20610,7 @@
         <v>142355.1</v>
       </c>
       <c r="B336" s="2">
-        <f>(100000*K336)+100000</f>
+        <f t="shared" si="5"/>
         <v>152748.95259999999</v>
       </c>
       <c r="K336">
@@ -20622,7 +20622,7 @@
         <v>94524.7</v>
       </c>
       <c r="B337" s="2">
-        <f>(100000*K337)+100000</f>
+        <f t="shared" si="5"/>
         <v>105205.90519999999</v>
       </c>
       <c r="K337">
@@ -20634,7 +20634,7 @@
         <v>103565.8</v>
       </c>
       <c r="B338" s="2">
-        <f>(100000*K338)+100000</f>
+        <f t="shared" si="5"/>
         <v>129285.5401</v>
       </c>
       <c r="K338">
@@ -20646,7 +20646,7 @@
         <v>107752.4</v>
       </c>
       <c r="B339" s="2">
-        <f>(100000*K339)+100000</f>
+        <f t="shared" si="5"/>
         <v>117503.6284</v>
       </c>
       <c r="K339">
@@ -20658,7 +20658,7 @@
         <v>104028.8</v>
       </c>
       <c r="B340" s="2">
-        <f>(100000*K340)+100000</f>
+        <f t="shared" si="5"/>
         <v>152664.28039999999</v>
       </c>
       <c r="K340">
@@ -20670,7 +20670,7 @@
         <v>124276.9</v>
       </c>
       <c r="B341" s="2">
-        <f>(100000*K341)+100000</f>
+        <f t="shared" si="5"/>
         <v>167593.34970000002</v>
       </c>
       <c r="K341">
@@ -20682,7 +20682,7 @@
         <v>111770.3</v>
       </c>
       <c r="B342" s="2">
-        <f>(100000*K342)+100000</f>
+        <f t="shared" si="5"/>
         <v>134904.71409999998</v>
       </c>
       <c r="K342">
@@ -20694,7 +20694,7 @@
         <v>184796.9</v>
       </c>
       <c r="B343" s="2">
-        <f>(100000*K343)+100000</f>
+        <f t="shared" si="5"/>
         <v>157630.89789999998</v>
       </c>
       <c r="K343">
@@ -20706,7 +20706,7 @@
         <v>73192</v>
       </c>
       <c r="B344" s="2">
-        <f>(100000*K344)+100000</f>
+        <f t="shared" si="5"/>
         <v>35134.633199999997</v>
       </c>
       <c r="K344">
@@ -20718,7 +20718,7 @@
         <v>115459.8</v>
       </c>
       <c r="B345" s="2">
-        <f>(100000*K345)+100000</f>
+        <f t="shared" si="5"/>
         <v>134260.49299999999</v>
       </c>
       <c r="K345">
@@ -20730,7 +20730,7 @@
         <v>134281.29999999999</v>
       </c>
       <c r="B346" s="2">
-        <f>(100000*K346)+100000</f>
+        <f t="shared" si="5"/>
         <v>144895.77249999999</v>
       </c>
       <c r="K346">
@@ -20742,7 +20742,7 @@
         <v>101397.2</v>
       </c>
       <c r="B347" s="2">
-        <f>(100000*K347)+100000</f>
+        <f t="shared" si="5"/>
         <v>98245.614000000001</v>
       </c>
       <c r="K347">
@@ -20754,7 +20754,7 @@
         <v>75821.25</v>
       </c>
       <c r="B348" s="2">
-        <f>(100000*K348)+100000</f>
+        <f t="shared" si="5"/>
         <v>105354.4495</v>
       </c>
       <c r="K348">
@@ -20766,7 +20766,7 @@
         <v>100470.39999999999</v>
       </c>
       <c r="B349" s="2">
-        <f>(100000*K349)+100000</f>
+        <f t="shared" si="5"/>
         <v>95973.395600000003</v>
       </c>
       <c r="K349">
@@ -20778,7 +20778,7 @@
         <v>72984</v>
       </c>
       <c r="B350" s="2">
-        <f>(100000*K350)+100000</f>
+        <f t="shared" si="5"/>
         <v>82179.199900000007</v>
       </c>
       <c r="K350">
@@ -20790,7 +20790,7 @@
         <v>133022.85</v>
       </c>
       <c r="B351" s="2">
-        <f>(100000*K351)+100000</f>
+        <f t="shared" si="5"/>
         <v>147681.92199999999</v>
       </c>
       <c r="K351">
@@ -20802,7 +20802,7 @@
         <v>98992.2</v>
       </c>
       <c r="B352" s="2">
-        <f>(100000*K352)+100000</f>
+        <f t="shared" si="5"/>
         <v>119099.3236</v>
       </c>
       <c r="K352">
@@ -20814,7 +20814,7 @@
         <v>129296.2</v>
       </c>
       <c r="B353" s="2">
-        <f>(100000*K353)+100000</f>
+        <f t="shared" si="5"/>
         <v>141408.0491</v>
       </c>
       <c r="K353">
@@ -20826,7 +20826,7 @@
         <v>116270.5</v>
       </c>
       <c r="B354" s="2">
-        <f>(100000*K354)+100000</f>
+        <f t="shared" si="5"/>
         <v>139632.21309999999</v>
       </c>
       <c r="K354">
@@ -20838,7 +20838,7 @@
         <v>132121.20000000001</v>
       </c>
       <c r="B355" s="2">
-        <f>(100000*K355)+100000</f>
+        <f t="shared" si="5"/>
         <v>135486.6587</v>
       </c>
       <c r="K355">
@@ -20850,7 +20850,7 @@
         <v>102184.6</v>
       </c>
       <c r="B356" s="2">
-        <f>(100000*K356)+100000</f>
+        <f t="shared" si="5"/>
         <v>141489.8633</v>
       </c>
       <c r="K356">
@@ -20862,7 +20862,7 @@
         <v>142867.9</v>
       </c>
       <c r="B357" s="2">
-        <f>(100000*K357)+100000</f>
+        <f t="shared" si="5"/>
         <v>151464.79009999998</v>
       </c>
       <c r="K357">
@@ -20874,7 +20874,7 @@
         <v>79204.7</v>
       </c>
       <c r="B358" s="2">
-        <f>(100000*K358)+100000</f>
+        <f t="shared" si="5"/>
         <v>71167.485000000001</v>
       </c>
       <c r="K358">
@@ -20886,7 +20886,7 @@
         <v>111726.9</v>
       </c>
       <c r="B359" s="2">
-        <f>(100000*K359)+100000</f>
+        <f t="shared" si="5"/>
         <v>137430.0373</v>
       </c>
       <c r="K359">
@@ -20898,7 +20898,7 @@
         <v>119955.2</v>
       </c>
       <c r="B360" s="2">
-        <f>(100000*K360)+100000</f>
+        <f t="shared" si="5"/>
         <v>141179.90650000001</v>
       </c>
       <c r="K360">
@@ -20910,7 +20910,7 @@
         <v>174806.7</v>
       </c>
       <c r="B361" s="2">
-        <f>(100000*K361)+100000</f>
+        <f t="shared" si="5"/>
         <v>142511.14970000001</v>
       </c>
       <c r="K361">
@@ -20922,7 +20922,7 @@
         <v>133321.29999999999</v>
       </c>
       <c r="B362" s="2">
-        <f>(100000*K362)+100000</f>
+        <f t="shared" si="5"/>
         <v>134905.74710000001</v>
       </c>
       <c r="K362">
@@ -20934,7 +20934,7 @@
         <v>107761.2</v>
       </c>
       <c r="B363" s="2">
-        <f>(100000*K363)+100000</f>
+        <f t="shared" si="5"/>
         <v>139136.62239999999</v>
       </c>
       <c r="K363">
@@ -20946,7 +20946,7 @@
         <v>97141</v>
       </c>
       <c r="B364" s="2">
-        <f>(100000*K364)+100000</f>
+        <f t="shared" si="5"/>
         <v>447.92829999999958</v>
       </c>
       <c r="K364">
@@ -20958,7 +20958,7 @@
         <v>132582.20000000001</v>
       </c>
       <c r="B365" s="2">
-        <f>(100000*K365)+100000</f>
+        <f t="shared" si="5"/>
         <v>160853.95559999999</v>
       </c>
       <c r="K365">
@@ -20970,7 +20970,7 @@
         <v>120447.5</v>
       </c>
       <c r="B366" s="2">
-        <f>(100000*K366)+100000</f>
+        <f t="shared" si="5"/>
         <v>179892.90030000001</v>
       </c>
       <c r="K366">
@@ -20982,7 +20982,7 @@
         <v>123446.2</v>
       </c>
       <c r="B367" s="2">
-        <f>(100000*K367)+100000</f>
+        <f t="shared" si="5"/>
         <v>141567.2451</v>
       </c>
       <c r="K367">
@@ -20994,7 +20994,7 @@
         <v>201586.5</v>
       </c>
       <c r="B368" s="2">
-        <f>(100000*K368)+100000</f>
+        <f t="shared" si="5"/>
         <v>175173.33799999999</v>
       </c>
       <c r="K368">
@@ -21006,7 +21006,7 @@
         <v>123123.6</v>
       </c>
       <c r="B369" s="2">
-        <f>(100000*K369)+100000</f>
+        <f t="shared" si="5"/>
         <v>142565.42129999999</v>
       </c>
       <c r="K369">
@@ -21018,7 +21018,7 @@
         <v>129605.6</v>
       </c>
       <c r="B370" s="2">
-        <f>(100000*K370)+100000</f>
+        <f t="shared" si="5"/>
         <v>148653.1612</v>
       </c>
       <c r="K370">
@@ -21030,7 +21030,7 @@
         <v>85005.1</v>
       </c>
       <c r="B371" s="2">
-        <f>(100000*K371)+100000</f>
+        <f t="shared" si="5"/>
         <v>148676.5655</v>
       </c>
       <c r="K371">
@@ -21042,7 +21042,7 @@
         <v>94488.75</v>
       </c>
       <c r="B372" s="2">
-        <f>(100000*K372)+100000</f>
+        <f t="shared" si="5"/>
         <v>83412.732799999998</v>
       </c>
       <c r="K372">
@@ -21054,7 +21054,7 @@
         <v>88443</v>
       </c>
       <c r="B373" s="2">
-        <f>(100000*K373)+100000</f>
+        <f t="shared" si="5"/>
         <v>111813.48269999999</v>
       </c>
       <c r="K373">
@@ -21066,7 +21066,7 @@
         <v>112520.1</v>
       </c>
       <c r="B374" s="2">
-        <f>(100000*K374)+100000</f>
+        <f t="shared" si="5"/>
         <v>127811.81080000001</v>
       </c>
       <c r="K374">
@@ -21078,7 +21078,7 @@
         <v>155050.698</v>
       </c>
       <c r="B375" s="2">
-        <f>(100000*K375)+100000</f>
+        <f t="shared" si="5"/>
         <v>157468.84789999999</v>
       </c>
       <c r="K375">
@@ -21090,7 +21090,7 @@
         <v>108842.1</v>
       </c>
       <c r="B376" s="2">
-        <f>(100000*K376)+100000</f>
+        <f t="shared" si="5"/>
         <v>116618.32949999999</v>
       </c>
       <c r="K376">
@@ -21102,7 +21102,7 @@
         <v>117277.3</v>
       </c>
       <c r="B377" s="2">
-        <f>(100000*K377)+100000</f>
+        <f t="shared" si="5"/>
         <v>150140.4191</v>
       </c>
       <c r="K377">
@@ -21114,7 +21114,7 @@
         <v>91374.3</v>
       </c>
       <c r="B378" s="2">
-        <f>(100000*K378)+100000</f>
+        <f t="shared" si="5"/>
         <v>115334.8214</v>
       </c>
       <c r="K378">
@@ -21126,7 +21126,7 @@
         <v>106256.6</v>
       </c>
       <c r="B379" s="2">
-        <f>(100000*K379)+100000</f>
+        <f t="shared" si="5"/>
         <v>177672.41379999998</v>
       </c>
       <c r="K379">
@@ -21138,7 +21138,7 @@
         <v>111281.1</v>
       </c>
       <c r="B380" s="2">
-        <f>(100000*K380)+100000</f>
+        <f t="shared" si="5"/>
         <v>128101.26579999999</v>
       </c>
       <c r="K380">
@@ -21150,7 +21150,7 @@
         <v>114402.3</v>
       </c>
       <c r="B381" s="2">
-        <f>(100000*K381)+100000</f>
+        <f t="shared" si="5"/>
         <v>158327.47719999999</v>
       </c>
       <c r="K381">
@@ -21162,7 +21162,7 @@
         <v>102631.5</v>
       </c>
       <c r="B382" s="2">
-        <f>(100000*K382)+100000</f>
+        <f t="shared" si="5"/>
         <v>126369.30590000001</v>
       </c>
       <c r="K382">
@@ -21174,7 +21174,7 @@
         <v>107234.4</v>
       </c>
       <c r="B383" s="2">
-        <f>(100000*K383)+100000</f>
+        <f t="shared" si="5"/>
         <v>136531.5601</v>
       </c>
       <c r="K383">
@@ -21186,7 +21186,7 @@
         <v>101988.2</v>
       </c>
       <c r="B384" s="2">
-        <f>(100000*K384)+100000</f>
+        <f t="shared" si="5"/>
         <v>115079.57920000001</v>
       </c>
       <c r="K384">
@@ -21198,7 +21198,7 @@
         <v>135276.20000000001</v>
       </c>
       <c r="B385" s="2">
-        <f>(100000*K385)+100000</f>
+        <f t="shared" si="5"/>
         <v>156915.035</v>
       </c>
       <c r="K385">
@@ -21210,7 +21210,7 @@
         <v>112829.5</v>
       </c>
       <c r="B386" s="2">
-        <f>(100000*K386)+100000</f>
+        <f t="shared" ref="B386:B449" si="6">(100000*K386)+100000</f>
         <v>129565.8306</v>
       </c>
       <c r="K386">
@@ -21222,7 +21222,7 @@
         <v>85878.5</v>
       </c>
       <c r="B387" s="2">
-        <f>(100000*K387)+100000</f>
+        <f t="shared" si="6"/>
         <v>72720.407800000001</v>
       </c>
       <c r="K387">
@@ -21234,7 +21234,7 @@
         <v>120716.5</v>
       </c>
       <c r="B388" s="2">
-        <f>(100000*K388)+100000</f>
+        <f t="shared" si="6"/>
         <v>143674.61679999999</v>
       </c>
       <c r="K388">
@@ -21246,7 +21246,7 @@
         <v>105831.3</v>
       </c>
       <c r="B389" s="2">
-        <f>(100000*K389)+100000</f>
+        <f t="shared" si="6"/>
         <v>121381.0316</v>
       </c>
       <c r="K389">
@@ -21258,7 +21258,7 @@
         <v>113210</v>
       </c>
       <c r="B390" s="2">
-        <f>(100000*K390)+100000</f>
+        <f t="shared" si="6"/>
         <v>141189.59109999999</v>
       </c>
       <c r="K390">
@@ -21270,7 +21270,7 @@
         <v>106991.16</v>
       </c>
       <c r="B391" s="2">
-        <f>(100000*K391)+100000</f>
+        <f t="shared" si="6"/>
         <v>145068.23819999999</v>
       </c>
       <c r="K391">
@@ -21282,7 +21282,7 @@
         <v>130284.2</v>
       </c>
       <c r="B392" s="2">
-        <f>(100000*K392)+100000</f>
+        <f t="shared" si="6"/>
         <v>137218.00900000002</v>
       </c>
       <c r="K392">
@@ -21294,7 +21294,7 @@
         <v>81307.7</v>
       </c>
       <c r="B393" s="2">
-        <f>(100000*K393)+100000</f>
+        <f t="shared" si="6"/>
         <v>-37176.470600000001</v>
       </c>
       <c r="K393">
@@ -21306,7 +21306,7 @@
         <v>96628.6</v>
       </c>
       <c r="B394" s="2">
-        <f>(100000*K394)+100000</f>
+        <f t="shared" si="6"/>
         <v>-775.41640000000189</v>
       </c>
       <c r="K394">
@@ -21318,7 +21318,7 @@
         <v>87308.240999999995</v>
       </c>
       <c r="B395" s="2">
-        <f>(100000*K395)+100000</f>
+        <f t="shared" si="6"/>
         <v>91666.666700000002</v>
       </c>
       <c r="K395">
@@ -21330,7 +21330,7 @@
         <v>141795.6</v>
       </c>
       <c r="B396" s="2">
-        <f>(100000*K396)+100000</f>
+        <f t="shared" si="6"/>
         <v>160938.75099999999</v>
       </c>
       <c r="K396">
@@ -21342,7 +21342,7 @@
         <v>151268.63</v>
       </c>
       <c r="B397" s="2">
-        <f>(100000*K397)+100000</f>
+        <f t="shared" si="6"/>
         <v>159707.23579999999</v>
       </c>
       <c r="K397">
@@ -21354,7 +21354,7 @@
         <v>105607.41</v>
       </c>
       <c r="B398" s="2">
-        <f>(100000*K398)+100000</f>
+        <f t="shared" si="6"/>
         <v>178781.5613</v>
       </c>
       <c r="K398">
@@ -21366,7 +21366,7 @@
         <v>113328.1</v>
       </c>
       <c r="B399" s="2">
-        <f>(100000*K399)+100000</f>
+        <f t="shared" si="6"/>
         <v>141349.92329999999</v>
       </c>
       <c r="K399">
@@ -21378,7 +21378,7 @@
         <v>90155.9</v>
       </c>
       <c r="B400" s="2">
-        <f>(100000*K400)+100000</f>
+        <f t="shared" si="6"/>
         <v>-500000</v>
       </c>
       <c r="K400">
@@ -21390,7 +21390,7 @@
         <v>115494</v>
       </c>
       <c r="B401" s="2">
-        <f>(100000*K401)+100000</f>
+        <f t="shared" si="6"/>
         <v>144110.57689999999</v>
       </c>
       <c r="K401">
@@ -21402,7 +21402,7 @@
         <v>143070.5</v>
       </c>
       <c r="B402" s="2">
-        <f>(100000*K402)+100000</f>
+        <f t="shared" si="6"/>
         <v>149553.57140000002</v>
       </c>
       <c r="K402">
@@ -21414,7 +21414,7 @@
         <v>103370.5</v>
       </c>
       <c r="B403" s="2">
-        <f>(100000*K403)+100000</f>
+        <f t="shared" si="6"/>
         <v>114024.89629999999</v>
       </c>
       <c r="K403">
@@ -21426,7 +21426,7 @@
         <v>136833.1</v>
       </c>
       <c r="B404" s="2">
-        <f>(100000*K404)+100000</f>
+        <f t="shared" si="6"/>
         <v>159321.35330000002</v>
       </c>
       <c r="K404">
@@ -21438,7 +21438,7 @@
         <v>103840.29</v>
       </c>
       <c r="B405" s="2">
-        <f>(100000*K405)+100000</f>
+        <f t="shared" si="6"/>
         <v>130608.0655</v>
       </c>
       <c r="K405">
@@ -21450,7 +21450,7 @@
         <v>103545.3</v>
       </c>
       <c r="B406" s="2">
-        <f>(100000*K406)+100000</f>
+        <f t="shared" si="6"/>
         <v>104850.1577</v>
       </c>
       <c r="K406">
@@ -21462,7 +21462,7 @@
         <v>119426.5</v>
       </c>
       <c r="B407" s="2">
-        <f>(100000*K407)+100000</f>
+        <f t="shared" si="6"/>
         <v>131734.48509999999</v>
       </c>
       <c r="K407">
@@ -21474,7 +21474,7 @@
         <v>102334.3</v>
       </c>
       <c r="B408" s="2">
-        <f>(100000*K408)+100000</f>
+        <f t="shared" si="6"/>
         <v>126804.76730000001</v>
       </c>
       <c r="K408">
@@ -21486,7 +21486,7 @@
         <v>116664.4</v>
       </c>
       <c r="B409" s="2">
-        <f>(100000*K409)+100000</f>
+        <f t="shared" si="6"/>
         <v>120040.66589999999</v>
       </c>
       <c r="K409">
@@ -21498,7 +21498,7 @@
         <v>46352.6</v>
       </c>
       <c r="B410" s="2">
-        <f>(100000*K410)+100000</f>
+        <f t="shared" si="6"/>
         <v>74531.312300000005</v>
       </c>
       <c r="K410">
@@ -21510,7 +21510,7 @@
         <v>114508</v>
       </c>
       <c r="B411" s="2">
-        <f>(100000*K411)+100000</f>
+        <f t="shared" si="6"/>
         <v>172850.51069999998</v>
       </c>
       <c r="K411">
@@ -21522,7 +21522,7 @@
         <v>309893.8</v>
       </c>
       <c r="B412" s="2">
-        <f>(100000*K412)+100000</f>
+        <f t="shared" si="6"/>
         <v>194593.53150000001</v>
       </c>
       <c r="K412">
@@ -21534,7 +21534,7 @@
         <v>114766.75</v>
       </c>
       <c r="B413" s="2">
-        <f>(100000*K413)+100000</f>
+        <f t="shared" si="6"/>
         <v>171303.5019</v>
       </c>
       <c r="K413">
@@ -21546,7 +21546,7 @@
         <v>262468.3</v>
       </c>
       <c r="B414" s="2">
-        <f>(100000*K414)+100000</f>
+        <f t="shared" si="6"/>
         <v>165550.8131</v>
       </c>
       <c r="K414">
@@ -21558,7 +21558,7 @@
         <v>94478</v>
       </c>
       <c r="B415" s="2">
-        <f>(100000*K415)+100000</f>
+        <f t="shared" si="6"/>
         <v>84832.336899999995</v>
       </c>
       <c r="K415">
@@ -21570,7 +21570,7 @@
         <v>181415.5</v>
       </c>
       <c r="B416" s="2">
-        <f>(100000*K416)+100000</f>
+        <f t="shared" si="6"/>
         <v>172119.67599999998</v>
       </c>
       <c r="K416">
@@ -21582,7 +21582,7 @@
         <v>156287.6</v>
       </c>
       <c r="B417" s="2">
-        <f>(100000*K417)+100000</f>
+        <f t="shared" si="6"/>
         <v>160233.41740000001</v>
       </c>
       <c r="K417">
@@ -21594,7 +21594,7 @@
         <v>144597.6</v>
       </c>
       <c r="B418" s="2">
-        <f>(100000*K418)+100000</f>
+        <f t="shared" si="6"/>
         <v>153350.08929999999</v>
       </c>
       <c r="K418">
@@ -21606,7 +21606,7 @@
         <v>275097.90000000002</v>
       </c>
       <c r="B419" s="2">
-        <f>(100000*K419)+100000</f>
+        <f t="shared" si="6"/>
         <v>190228.0012</v>
       </c>
       <c r="K419">
@@ -21618,7 +21618,7 @@
         <v>173404</v>
       </c>
       <c r="B420" s="2">
-        <f>(100000*K420)+100000</f>
+        <f t="shared" si="6"/>
         <v>161477.24729999999</v>
       </c>
       <c r="K420">
@@ -21630,7 +21630,7 @@
         <v>119344.15</v>
       </c>
       <c r="B421" s="2">
-        <f>(100000*K421)+100000</f>
+        <f t="shared" si="6"/>
         <v>172047.64840000001</v>
       </c>
       <c r="K421">
@@ -21642,7 +21642,7 @@
         <v>126726.45</v>
       </c>
       <c r="B422" s="2">
-        <f>(100000*K422)+100000</f>
+        <f t="shared" si="6"/>
         <v>146455.77040000001</v>
       </c>
       <c r="K422">
@@ -21654,7 +21654,7 @@
         <v>156992.4</v>
       </c>
       <c r="B423" s="2">
-        <f>(100000*K423)+100000</f>
+        <f t="shared" si="6"/>
         <v>148546.17859999998</v>
       </c>
       <c r="K423">
@@ -21666,7 +21666,7 @@
         <v>134485.70000000001</v>
       </c>
       <c r="B424" s="2">
-        <f>(100000*K424)+100000</f>
+        <f t="shared" si="6"/>
         <v>130500.7292</v>
       </c>
       <c r="K424">
@@ -21678,7 +21678,7 @@
         <v>127607.9</v>
       </c>
       <c r="B425" s="2">
-        <f>(100000*K425)+100000</f>
+        <f t="shared" si="6"/>
         <v>172118.1441</v>
       </c>
       <c r="K425">
@@ -21690,7 +21690,7 @@
         <v>108287.7</v>
       </c>
       <c r="B426" s="2">
-        <f>(100000*K426)+100000</f>
+        <f t="shared" si="6"/>
         <v>101614.40549999999</v>
       </c>
       <c r="K426">
@@ -21702,7 +21702,7 @@
         <v>96932.7</v>
       </c>
       <c r="B427" s="2">
-        <f>(100000*K427)+100000</f>
+        <f t="shared" si="6"/>
         <v>122049.4053</v>
       </c>
       <c r="K427">
@@ -21714,7 +21714,7 @@
         <v>117883.5</v>
       </c>
       <c r="B428" s="2">
-        <f>(100000*K428)+100000</f>
+        <f t="shared" si="6"/>
         <v>131032.11009999999</v>
       </c>
       <c r="K428">
@@ -21726,7 +21726,7 @@
         <v>165543.15</v>
       </c>
       <c r="B429" s="2">
-        <f>(100000*K429)+100000</f>
+        <f t="shared" si="6"/>
         <v>166376.25289999999</v>
       </c>
       <c r="K429">
@@ -21738,7 +21738,7 @@
         <v>141447.70000000001</v>
       </c>
       <c r="B430" s="2">
-        <f>(100000*K430)+100000</f>
+        <f t="shared" si="6"/>
         <v>150236.13399999999</v>
       </c>
       <c r="K430">
@@ -21750,7 +21750,7 @@
         <v>115854.3</v>
       </c>
       <c r="B431" s="2">
-        <f>(100000*K431)+100000</f>
+        <f t="shared" si="6"/>
         <v>143085.74479999999</v>
       </c>
       <c r="K431">
@@ -21762,7 +21762,7 @@
         <v>149780.29999999999</v>
       </c>
       <c r="B432" s="2">
-        <f>(100000*K432)+100000</f>
+        <f t="shared" si="6"/>
         <v>159930.11070000002</v>
       </c>
       <c r="K432">
@@ -21774,7 +21774,7 @@
         <v>180552.7</v>
       </c>
       <c r="B433" s="2">
-        <f>(100000*K433)+100000</f>
+        <f t="shared" si="6"/>
         <v>174430.9627</v>
       </c>
       <c r="K433">
@@ -21786,7 +21786,7 @@
         <v>124201.1</v>
       </c>
       <c r="B434" s="2">
-        <f>(100000*K434)+100000</f>
+        <f t="shared" si="6"/>
         <v>157614.83840000001</v>
       </c>
       <c r="K434">
@@ -21798,7 +21798,7 @@
         <v>153053.5</v>
       </c>
       <c r="B435" s="2">
-        <f>(100000*K435)+100000</f>
+        <f t="shared" si="6"/>
         <v>143563.82120000001</v>
       </c>
       <c r="K435">
@@ -21810,7 +21810,7 @@
         <v>122919.25</v>
       </c>
       <c r="B436" s="2">
-        <f>(100000*K436)+100000</f>
+        <f t="shared" si="6"/>
         <v>145247.9339</v>
       </c>
       <c r="K436">
@@ -21822,7 +21822,7 @@
         <v>110001.75</v>
       </c>
       <c r="B437" s="2">
-        <f>(100000*K437)+100000</f>
+        <f t="shared" si="6"/>
         <v>148639.4558</v>
       </c>
       <c r="K437">
@@ -21834,7 +21834,7 @@
         <v>102461.35</v>
       </c>
       <c r="B438" s="2">
-        <f>(100000*K438)+100000</f>
+        <f t="shared" si="6"/>
         <v>123156.0892</v>
       </c>
       <c r="K438">
@@ -21846,7 +21846,7 @@
         <v>74551.8</v>
       </c>
       <c r="B439" s="2">
-        <f>(100000*K439)+100000</f>
+        <f t="shared" si="6"/>
         <v>106719.609</v>
       </c>
       <c r="K439">
@@ -21858,7 +21858,7 @@
         <v>91128.9</v>
       </c>
       <c r="B440" s="2">
-        <f>(100000*K440)+100000</f>
+        <f t="shared" si="6"/>
         <v>103215.3763</v>
       </c>
       <c r="K440">
@@ -21870,7 +21870,7 @@
         <v>89318.9</v>
       </c>
       <c r="B441" s="2">
-        <f>(100000*K441)+100000</f>
+        <f t="shared" si="6"/>
         <v>35636.561499999996</v>
       </c>
       <c r="K441">
@@ -21882,7 +21882,7 @@
         <v>100514.6</v>
       </c>
       <c r="B442" s="2">
-        <f>(100000*K442)+100000</f>
+        <f t="shared" si="6"/>
         <v>126306.3708</v>
       </c>
       <c r="K442">
@@ -21894,7 +21894,7 @@
         <v>111164.7</v>
       </c>
       <c r="B443" s="2">
-        <f>(100000*K443)+100000</f>
+        <f t="shared" si="6"/>
         <v>161043.82929999998</v>
       </c>
       <c r="K443">
@@ -21906,7 +21906,7 @@
         <v>97465.7</v>
       </c>
       <c r="B444" s="2">
-        <f>(100000*K444)+100000</f>
+        <f t="shared" si="6"/>
         <v>120233.463</v>
       </c>
       <c r="K444">
@@ -21918,7 +21918,7 @@
         <v>81441.8</v>
       </c>
       <c r="B445" s="2">
-        <f>(100000*K445)+100000</f>
+        <f t="shared" si="6"/>
         <v>56181.880099999995</v>
       </c>
       <c r="K445">
@@ -21930,7 +21930,7 @@
         <v>135785.859</v>
       </c>
       <c r="B446" s="2">
-        <f>(100000*K446)+100000</f>
+        <f t="shared" si="6"/>
         <v>175812.08370000002</v>
       </c>
       <c r="K446">
@@ -21942,7 +21942,7 @@
         <v>85151.5</v>
       </c>
       <c r="B447" s="2">
-        <f>(100000*K447)+100000</f>
+        <f t="shared" si="6"/>
         <v>256.62960000000021</v>
       </c>
       <c r="K447">
@@ -21954,7 +21954,7 @@
         <v>132993.1</v>
       </c>
       <c r="B448" s="2">
-        <f>(100000*K448)+100000</f>
+        <f t="shared" si="6"/>
         <v>161124.31539999999</v>
       </c>
       <c r="K448">
@@ -21966,7 +21966,7 @@
         <v>89715</v>
       </c>
       <c r="B449" s="2">
-        <f>(100000*K449)+100000</f>
+        <f t="shared" si="6"/>
         <v>51584.022000000004</v>
       </c>
       <c r="K449">
@@ -21978,7 +21978,7 @@
         <v>112606.65</v>
       </c>
       <c r="B450" s="2">
-        <f>(100000*K450)+100000</f>
+        <f t="shared" ref="B450:B477" si="7">(100000*K450)+100000</f>
         <v>130243.03879999999</v>
       </c>
       <c r="K450">
@@ -21990,7 +21990,7 @@
         <v>185159.3</v>
       </c>
       <c r="B451" s="2">
-        <f>(100000*K451)+100000</f>
+        <f t="shared" si="7"/>
         <v>155167.36170000001</v>
       </c>
       <c r="K451">
@@ -22002,7 +22002,7 @@
         <v>85606.8</v>
       </c>
       <c r="B452" s="2">
-        <f>(100000*K452)+100000</f>
+        <f t="shared" si="7"/>
         <v>97590.962</v>
       </c>
       <c r="K452">
@@ -22014,7 +22014,7 @@
         <v>105846.15</v>
       </c>
       <c r="B453" s="2">
-        <f>(100000*K453)+100000</f>
+        <f t="shared" si="7"/>
         <v>142073.82630000002</v>
       </c>
       <c r="K453">
@@ -22026,7 +22026,7 @@
         <v>112941.8</v>
       </c>
       <c r="B454" s="2">
-        <f>(100000*K454)+100000</f>
+        <f t="shared" si="7"/>
         <v>115995.3492</v>
       </c>
       <c r="K454">
@@ -22038,7 +22038,7 @@
         <v>85849.4</v>
       </c>
       <c r="B455" s="2">
-        <f>(100000*K455)+100000</f>
+        <f t="shared" si="7"/>
         <v>-43168.316800000001</v>
       </c>
       <c r="K455">
@@ -22050,7 +22050,7 @@
         <v>131282.70000000001</v>
       </c>
       <c r="B456" s="2">
-        <f>(100000*K456)+100000</f>
+        <f t="shared" si="7"/>
         <v>157122.4926</v>
       </c>
       <c r="K456">
@@ -22062,7 +22062,7 @@
         <v>101119.55</v>
       </c>
       <c r="B457" s="2">
-        <f>(100000*K457)+100000</f>
+        <f t="shared" si="7"/>
         <v>113981.8826</v>
       </c>
       <c r="K457">
@@ -22074,7 +22074,7 @@
         <v>102048</v>
       </c>
       <c r="B458" s="2">
-        <f>(100000*K458)+100000</f>
+        <f t="shared" si="7"/>
         <v>93122.750899999999</v>
       </c>
       <c r="K458">
@@ -22086,7 +22086,7 @@
         <v>164399.70000000001</v>
       </c>
       <c r="B459" s="2">
-        <f>(100000*K459)+100000</f>
+        <f t="shared" si="7"/>
         <v>172547.15789999999</v>
       </c>
       <c r="K459">
@@ -22098,7 +22098,7 @@
         <v>103291.2</v>
       </c>
       <c r="B460" s="2">
-        <f>(100000*K460)+100000</f>
+        <f t="shared" si="7"/>
         <v>126411.7647</v>
       </c>
       <c r="K460">
@@ -22110,7 +22110,7 @@
         <v>112306.23</v>
       </c>
       <c r="B461" s="2">
-        <f>(100000*K461)+100000</f>
+        <f t="shared" si="7"/>
         <v>128648.7706</v>
       </c>
       <c r="K461">
@@ -22122,7 +22122,7 @@
         <v>106199.03999999999</v>
       </c>
       <c r="B462" s="2">
-        <f>(100000*K462)+100000</f>
+        <f t="shared" si="7"/>
         <v>159396.47450000001</v>
       </c>
       <c r="K462">
@@ -22134,7 +22134,7 @@
         <v>212344.95999999999</v>
       </c>
       <c r="B463" s="2">
-        <f>(100000*K463)+100000</f>
+        <f t="shared" si="7"/>
         <v>148434.56630000001</v>
       </c>
       <c r="K463">
@@ -22146,7 +22146,7 @@
         <v>165856.9</v>
       </c>
       <c r="B464" s="2">
-        <f>(100000*K464)+100000</f>
+        <f t="shared" si="7"/>
         <v>157332.50519999999</v>
       </c>
       <c r="K464">
@@ -22158,7 +22158,7 @@
         <v>102989.3</v>
       </c>
       <c r="B465" s="2">
-        <f>(100000*K465)+100000</f>
+        <f t="shared" si="7"/>
         <v>112993.7163</v>
       </c>
       <c r="K465">
@@ -22170,7 +22170,7 @@
         <v>97837</v>
       </c>
       <c r="B466" s="2">
-        <f>(100000*K466)+100000</f>
+        <f t="shared" si="7"/>
         <v>101195.5855</v>
       </c>
       <c r="K466">
@@ -22182,7 +22182,7 @@
         <v>95474.7</v>
       </c>
       <c r="B467" s="2">
-        <f>(100000*K467)+100000</f>
+        <f t="shared" si="7"/>
         <v>95934.104500000001</v>
       </c>
       <c r="K467">
@@ -22194,7 +22194,7 @@
         <v>150032.5</v>
       </c>
       <c r="B468" s="2">
-        <f>(100000*K468)+100000</f>
+        <f t="shared" si="7"/>
         <v>172824.1771</v>
       </c>
       <c r="K468">
@@ -22206,7 +22206,7 @@
         <v>107775.55</v>
       </c>
       <c r="B469" s="2">
-        <f>(100000*K469)+100000</f>
+        <f t="shared" si="7"/>
         <v>140889.9712</v>
       </c>
       <c r="K469">
@@ -22218,7 +22218,7 @@
         <v>138140.65</v>
       </c>
       <c r="B470" s="2">
-        <f>(100000*K470)+100000</f>
+        <f t="shared" si="7"/>
         <v>158399.78</v>
       </c>
       <c r="K470">
@@ -22230,7 +22230,7 @@
         <v>100205.9</v>
       </c>
       <c r="B471" s="2">
-        <f>(100000*K471)+100000</f>
+        <f t="shared" si="7"/>
         <v>88306.4516</v>
       </c>
       <c r="K471">
@@ -22242,7 +22242,7 @@
         <v>129958</v>
       </c>
       <c r="B472" s="2">
-        <f>(100000*K472)+100000</f>
+        <f t="shared" si="7"/>
         <v>141837.34340000001</v>
       </c>
       <c r="K472">
@@ -22254,7 +22254,7 @@
         <v>112139.5</v>
       </c>
       <c r="B473" s="2">
-        <f>(100000*K473)+100000</f>
+        <f t="shared" si="7"/>
         <v>148528.0999</v>
       </c>
       <c r="K473">
@@ -22266,7 +22266,7 @@
         <v>79829.75</v>
       </c>
       <c r="B474" s="2">
-        <f>(100000*K474)+100000</f>
+        <f t="shared" si="7"/>
         <v>-94305.239200000011</v>
       </c>
       <c r="K474">
@@ -22278,7 +22278,7 @@
         <v>105980.75</v>
       </c>
       <c r="B475" s="2">
-        <f>(100000*K475)+100000</f>
+        <f t="shared" si="7"/>
         <v>131872.7273</v>
       </c>
       <c r="K475">
@@ -22290,7 +22290,7 @@
         <v>93178.3</v>
       </c>
       <c r="B476" s="2">
-        <f>(100000*K476)+100000</f>
+        <f t="shared" si="7"/>
         <v>137116.41959999999</v>
       </c>
       <c r="K476">
@@ -22302,7 +22302,7 @@
         <v>106133.9</v>
       </c>
       <c r="B477" s="2">
-        <f>(100000*K477)+100000</f>
+        <f t="shared" si="7"/>
         <v>108378.60430000001</v>
       </c>
       <c r="K477">
